--- a/data_month/zb/房地产/商业营业用房施工、竣工面积.xlsx
+++ b/data_month/zb/房地产/商业营业用房施工、竣工面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:J235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,26 @@
           <t>商业营业用房竣工面积_累计增长</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>商业营业用房新开工施工面积</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>商业营业用房施工面积</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>商业营业用房竣工面积</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -483,11 +498,20 @@
         <v>774.29</v>
       </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1929.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5975.15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>774.29</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -502,11 +526,20 @@
         <v>953.8200000000001</v>
       </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>212.6199999999999</v>
+      </c>
+      <c r="I3" t="n">
+        <v>389.2300000000005</v>
+      </c>
+      <c r="J3" t="n">
+        <v>179.5300000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -521,5582 +554,7670 @@
         <v>2299.11</v>
       </c>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>769.25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1218.87</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1345.29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2845.72</v>
+        <v>317.93</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>7444.47</v>
+        <v>3125.08</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>974.55</v>
+        <v>61.11</v>
       </c>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>317.93</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3125.08</v>
+      </c>
+      <c r="J5" t="n">
+        <v>61.11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3074.47</v>
+        <v>595.48</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>7770.92</v>
+        <v>3764.96</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>1198.71</v>
+        <v>125.85</v>
       </c>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>277.55</v>
+      </c>
+      <c r="I6" t="n">
+        <v>639.8800000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>64.73999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3952.74</v>
+        <v>859.35</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>9175.469999999999</v>
+        <v>4431.29</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>2787.31</v>
+        <v>215.03</v>
       </c>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>263.87</v>
+      </c>
+      <c r="I7" t="n">
+        <v>666.3299999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>89.18000000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>317.93</v>
+        <v>1194.14</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>3125.08</v>
+        <v>5051.49</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>61.11</v>
+        <v>297.36</v>
       </c>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>334.7900000000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>620.1999999999998</v>
+      </c>
+      <c r="J8" t="n">
+        <v>82.33000000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>595.48</v>
+        <v>1657.56</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>3764.96</v>
+        <v>5715.41</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>125.85</v>
+        <v>449.75</v>
       </c>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>463.4199999999998</v>
+      </c>
+      <c r="I9" t="n">
+        <v>663.9200000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>152.39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>859.35</v>
+        <v>2010.69</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>4431.29</v>
+        <v>6260.87</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>215.03</v>
+        <v>562.5</v>
       </c>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>353.1300000000001</v>
+      </c>
+      <c r="I10" t="n">
+        <v>545.46</v>
+      </c>
+      <c r="J10" t="n">
+        <v>112.75</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1194.14</v>
+        <v>2291.62</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>5051.49</v>
+        <v>6661.58</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>297.36</v>
+        <v>692.9</v>
       </c>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>280.9299999999998</v>
+      </c>
+      <c r="I11" t="n">
+        <v>400.71</v>
+      </c>
+      <c r="J11" t="n">
+        <v>130.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1657.56</v>
+        <v>2616.03</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>5715.41</v>
+        <v>7109.11</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>449.75</v>
+        <v>827.0700000000001</v>
       </c>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>324.4100000000003</v>
+      </c>
+      <c r="I12" t="n">
+        <v>447.5299999999997</v>
+      </c>
+      <c r="J12" t="n">
+        <v>134.1700000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2010.69</v>
+        <v>2845.72</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>6260.87</v>
+        <v>7444.47</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>562.5</v>
+        <v>974.55</v>
       </c>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>229.6899999999996</v>
+      </c>
+      <c r="I13" t="n">
+        <v>335.3600000000006</v>
+      </c>
+      <c r="J13" t="n">
+        <v>147.4799999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2291.62</v>
+        <v>3074.47</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>6661.58</v>
+        <v>7770.92</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>692.9</v>
+        <v>1198.71</v>
       </c>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>228.75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>326.4499999999998</v>
+      </c>
+      <c r="J14" t="n">
+        <v>224.1600000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2616.03</v>
+        <v>3952.74</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>7109.11</v>
+        <v>9175.469999999999</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>827.0700000000001</v>
+        <v>2787.31</v>
       </c>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>878.27</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1404.549999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1588.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3364.96</v>
+        <v>356.31</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>9116.469999999999</v>
+        <v>2988.04</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>1229.63</v>
+        <v>64.34999999999999</v>
       </c>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>356.31</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2988.04</v>
+      </c>
+      <c r="J16" t="n">
+        <v>64.34999999999999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3671.48</v>
+        <v>721.4400000000001</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>9541.33</v>
+        <v>4534.93</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>1488.19</v>
+        <v>194.73</v>
       </c>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>365.1300000000001</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1546.89</v>
+      </c>
+      <c r="J17" t="n">
+        <v>130.38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4822.59</v>
+        <v>1101.42</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>11251.8</v>
+        <v>5549.73</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>3570.64</v>
+        <v>302.67</v>
       </c>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>379.98</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1014.799999999999</v>
+      </c>
+      <c r="J18" t="n">
+        <v>107.94</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>356.31</v>
+        <v>1486.32</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>2988.04</v>
+        <v>6267.69</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>64.34999999999999</v>
+        <v>409.13</v>
       </c>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>384.8999999999999</v>
+      </c>
+      <c r="I19" t="n">
+        <v>717.96</v>
+      </c>
+      <c r="J19" t="n">
+        <v>106.46</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>721.4400000000001</v>
+        <v>1980.88</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>4534.93</v>
+        <v>7106.42</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>194.73</v>
+        <v>577.26</v>
       </c>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>494.5600000000002</v>
+      </c>
+      <c r="I20" t="n">
+        <v>838.7300000000005</v>
+      </c>
+      <c r="J20" t="n">
+        <v>168.13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1101.42</v>
+        <v>2334.59</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>5549.73</v>
+        <v>7733.72</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>302.67</v>
+        <v>695.15</v>
       </c>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>353.71</v>
+      </c>
+      <c r="I21" t="n">
+        <v>627.3000000000002</v>
+      </c>
+      <c r="J21" t="n">
+        <v>117.89</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1486.32</v>
+        <v>2712.96</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>6267.69</v>
+        <v>8236.879999999999</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>409.13</v>
+        <v>855.22</v>
       </c>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>378.3699999999999</v>
+      </c>
+      <c r="I22" t="n">
+        <v>503.1599999999989</v>
+      </c>
+      <c r="J22" t="n">
+        <v>160.0700000000001</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1980.88</v>
+        <v>3030.89</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>7106.42</v>
+        <v>8660.75</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>577.26</v>
+        <v>1037.8</v>
       </c>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>317.9299999999998</v>
+      </c>
+      <c r="I23" t="n">
+        <v>423.8700000000008</v>
+      </c>
+      <c r="J23" t="n">
+        <v>182.5799999999999</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2334.59</v>
+        <v>3364.96</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>7733.72</v>
+        <v>9116.469999999999</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>695.15</v>
+        <v>1229.63</v>
       </c>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>334.0700000000002</v>
+      </c>
+      <c r="I24" t="n">
+        <v>455.7199999999993</v>
+      </c>
+      <c r="J24" t="n">
+        <v>191.8300000000002</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2712.96</v>
+        <v>3671.48</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>8236.879999999999</v>
+        <v>9541.33</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>855.22</v>
+        <v>1488.19</v>
       </c>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>306.52</v>
+      </c>
+      <c r="I25" t="n">
+        <v>424.8600000000006</v>
+      </c>
+      <c r="J25" t="n">
+        <v>258.5599999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3030.89</v>
+        <v>4822.59</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>8660.75</v>
+        <v>11251.8</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>1037.8</v>
+        <v>3570.64</v>
       </c>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1151.11</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1710.469999999999</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2082.45</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4858.84</v>
+        <v>572.61</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>12002.1</v>
+        <v>4409.99</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>1852.11</v>
+        <v>164.81</v>
       </c>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>572.61</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4409.99</v>
+      </c>
+      <c r="J27" t="n">
+        <v>164.81</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5294.79</v>
+        <v>1154.22</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>12610.77</v>
+        <v>6010.43</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>2096.53</v>
+        <v>318.99</v>
       </c>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>581.61</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1600.440000000001</v>
+      </c>
+      <c r="J28" t="n">
+        <v>154.18</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6597.69</v>
+        <v>1653.23</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>14564.33</v>
+        <v>7149.59</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>4540.83</v>
+        <v>445.2</v>
       </c>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>499.01</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1139.16</v>
+      </c>
+      <c r="J29" t="n">
+        <v>126.21</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>572.61</v>
+        <v>2229.64</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>4409.99</v>
+        <v>8303.67</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>164.81</v>
+        <v>601.24</v>
       </c>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>576.4099999999999</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1154.08</v>
+      </c>
+      <c r="J30" t="n">
+        <v>156.04</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1154.22</v>
+        <v>2909.07</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>6010.43</v>
+        <v>9466.43</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>318.99</v>
+        <v>858.38</v>
       </c>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>679.4300000000003</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1162.76</v>
+      </c>
+      <c r="J31" t="n">
+        <v>257.14</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1653.23</v>
+        <v>3371.24</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>7149.59</v>
+        <v>10081.41</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>445.2</v>
+        <v>1083.03</v>
       </c>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>462.1699999999996</v>
+      </c>
+      <c r="I32" t="n">
+        <v>614.9799999999996</v>
+      </c>
+      <c r="J32" t="n">
+        <v>224.65</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2229.64</v>
+        <v>3844.03</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>8303.67</v>
+        <v>10686.5</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>601.24</v>
+        <v>1275.08</v>
       </c>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>472.7900000000004</v>
+      </c>
+      <c r="I33" t="n">
+        <v>605.0900000000001</v>
+      </c>
+      <c r="J33" t="n">
+        <v>192.05</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2909.07</v>
+        <v>4410.99</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>9466.43</v>
+        <v>11408.94</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>858.38</v>
+        <v>1605.07</v>
       </c>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>566.9599999999996</v>
+      </c>
+      <c r="I34" t="n">
+        <v>722.4400000000005</v>
+      </c>
+      <c r="J34" t="n">
+        <v>329.99</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3371.24</v>
+        <v>4858.84</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>10081.41</v>
+        <v>12002.1</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>1083.03</v>
+        <v>1852.11</v>
       </c>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>447.8500000000004</v>
+      </c>
+      <c r="I35" t="n">
+        <v>593.1599999999999</v>
+      </c>
+      <c r="J35" t="n">
+        <v>247.04</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3844.03</v>
+        <v>5294.79</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>10686.5</v>
+        <v>12610.77</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>1275.08</v>
+        <v>2096.53</v>
       </c>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>435.9499999999998</v>
+      </c>
+      <c r="I36" t="n">
+        <v>608.6700000000001</v>
+      </c>
+      <c r="J36" t="n">
+        <v>244.4200000000003</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4410.99</v>
+        <v>6597.69</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>11408.94</v>
+        <v>14564.33</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>1605.07</v>
+        <v>4540.83</v>
       </c>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>1302.9</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1953.559999999999</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2444.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5745.52</v>
+        <v>987.39</v>
       </c>
       <c r="C38" t="n">
-        <v>18</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>15488.91</v>
+        <v>6507.63</v>
       </c>
       <c r="E38" t="n">
-        <v>28.4</v>
+        <v>47.5</v>
       </c>
       <c r="F38" t="n">
-        <v>2168.54</v>
+        <v>237.66</v>
       </c>
       <c r="G38" t="n">
-        <v>16.2</v>
+        <v>44.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>987.39</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6507.63</v>
+      </c>
+      <c r="J38" t="n">
+        <v>237.66</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6294.67</v>
+        <v>1627.01</v>
       </c>
       <c r="C39" t="n">
-        <v>18.3</v>
+        <v>41</v>
       </c>
       <c r="D39" t="n">
-        <v>16206.5</v>
+        <v>8527.74</v>
       </c>
       <c r="E39" t="n">
-        <v>27.7</v>
+        <v>41.1</v>
       </c>
       <c r="F39" t="n">
-        <v>2581.07</v>
+        <v>427.72</v>
       </c>
       <c r="G39" t="n">
-        <v>21.9</v>
+        <v>30.2</v>
+      </c>
+      <c r="H39" t="n">
+        <v>639.62</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2020.11</v>
+      </c>
+      <c r="J39" t="n">
+        <v>190.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7790.81</v>
+        <v>2128.15</v>
       </c>
       <c r="C40" t="n">
-        <v>16.2</v>
+        <v>28.9</v>
       </c>
       <c r="D40" t="n">
-        <v>18293.23</v>
+        <v>9908.959999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>23.5</v>
+        <v>38.4</v>
       </c>
       <c r="F40" t="n">
-        <v>4945.95</v>
+        <v>631.55</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>39.8</v>
+      </c>
+      <c r="H40" t="n">
+        <v>501.1400000000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1381.219999999999</v>
+      </c>
+      <c r="J40" t="n">
+        <v>203.8299999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>987.39</v>
+        <v>2743.37</v>
       </c>
       <c r="C41" t="n">
-        <v>72.59999999999999</v>
+        <v>23</v>
       </c>
       <c r="D41" t="n">
-        <v>6507.63</v>
+        <v>11092.2</v>
       </c>
       <c r="E41" t="n">
-        <v>47.5</v>
+        <v>33.4</v>
       </c>
       <c r="F41" t="n">
-        <v>237.66</v>
+        <v>822.25</v>
       </c>
       <c r="G41" t="n">
-        <v>44.3</v>
+        <v>35.7</v>
+      </c>
+      <c r="H41" t="n">
+        <v>615.2199999999998</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1183.240000000002</v>
+      </c>
+      <c r="J41" t="n">
+        <v>190.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1627.01</v>
+        <v>3500.3</v>
       </c>
       <c r="C42" t="n">
-        <v>41</v>
+        <v>20.3</v>
       </c>
       <c r="D42" t="n">
-        <v>8527.74</v>
+        <v>12300.61</v>
       </c>
       <c r="E42" t="n">
-        <v>41.1</v>
+        <v>29.7</v>
       </c>
       <c r="F42" t="n">
-        <v>427.72</v>
+        <v>1061.93</v>
       </c>
       <c r="G42" t="n">
-        <v>30.2</v>
+        <v>22.4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>756.9300000000003</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1208.41</v>
+      </c>
+      <c r="J42" t="n">
+        <v>239.6800000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2128.15</v>
+        <v>4070.22</v>
       </c>
       <c r="C43" t="n">
-        <v>28.9</v>
+        <v>20.7</v>
       </c>
       <c r="D43" t="n">
-        <v>9908.959999999999</v>
+        <v>13163.94</v>
       </c>
       <c r="E43" t="n">
-        <v>38.4</v>
+        <v>29.8</v>
       </c>
       <c r="F43" t="n">
-        <v>631.55</v>
+        <v>1328.96</v>
       </c>
       <c r="G43" t="n">
-        <v>39.8</v>
+        <v>21.9</v>
+      </c>
+      <c r="H43" t="n">
+        <v>569.9199999999996</v>
+      </c>
+      <c r="I43" t="n">
+        <v>863.3299999999999</v>
+      </c>
+      <c r="J43" t="n">
+        <v>267.03</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2743.37</v>
+        <v>4581.7</v>
       </c>
       <c r="C44" t="n">
-        <v>23</v>
+        <v>19.2</v>
       </c>
       <c r="D44" t="n">
-        <v>11092.2</v>
+        <v>13961.3</v>
       </c>
       <c r="E44" t="n">
-        <v>33.4</v>
+        <v>29.9</v>
       </c>
       <c r="F44" t="n">
-        <v>822.25</v>
+        <v>1527.67</v>
       </c>
       <c r="G44" t="n">
-        <v>35.7</v>
+        <v>18.2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>511.48</v>
+      </c>
+      <c r="I44" t="n">
+        <v>797.3599999999988</v>
+      </c>
+      <c r="J44" t="n">
+        <v>198.71</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3500.3</v>
+        <v>5227.37</v>
       </c>
       <c r="C45" t="n">
-        <v>20.3</v>
+        <v>18.2</v>
       </c>
       <c r="D45" t="n">
-        <v>12300.61</v>
+        <v>14779.25</v>
       </c>
       <c r="E45" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="F45" t="n">
-        <v>1061.93</v>
+        <v>1792.29</v>
       </c>
       <c r="G45" t="n">
-        <v>22.4</v>
+        <v>10.4</v>
+      </c>
+      <c r="H45" t="n">
+        <v>645.6700000000001</v>
+      </c>
+      <c r="I45" t="n">
+        <v>817.9500000000007</v>
+      </c>
+      <c r="J45" t="n">
+        <v>264.6199999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4070.22</v>
+        <v>5745.52</v>
       </c>
       <c r="C46" t="n">
-        <v>20.7</v>
+        <v>18</v>
       </c>
       <c r="D46" t="n">
-        <v>13163.94</v>
+        <v>15488.91</v>
       </c>
       <c r="E46" t="n">
-        <v>29.8</v>
+        <v>28.4</v>
       </c>
       <c r="F46" t="n">
-        <v>1328.96</v>
+        <v>2168.54</v>
       </c>
       <c r="G46" t="n">
-        <v>21.9</v>
+        <v>16.2</v>
+      </c>
+      <c r="H46" t="n">
+        <v>518.1500000000005</v>
+      </c>
+      <c r="I46" t="n">
+        <v>709.6599999999999</v>
+      </c>
+      <c r="J46" t="n">
+        <v>376.25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4581.7</v>
+        <v>6294.67</v>
       </c>
       <c r="C47" t="n">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="D47" t="n">
-        <v>13961.3</v>
+        <v>16206.5</v>
       </c>
       <c r="E47" t="n">
-        <v>29.9</v>
+        <v>27.7</v>
       </c>
       <c r="F47" t="n">
-        <v>1527.67</v>
+        <v>2581.07</v>
       </c>
       <c r="G47" t="n">
-        <v>18.2</v>
+        <v>21.9</v>
+      </c>
+      <c r="H47" t="n">
+        <v>549.1499999999996</v>
+      </c>
+      <c r="I47" t="n">
+        <v>717.5900000000001</v>
+      </c>
+      <c r="J47" t="n">
+        <v>412.5300000000002</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5227.37</v>
+        <v>7790.81</v>
       </c>
       <c r="C48" t="n">
-        <v>18.2</v>
+        <v>16.2</v>
       </c>
       <c r="D48" t="n">
-        <v>14779.25</v>
+        <v>18293.23</v>
       </c>
       <c r="E48" t="n">
-        <v>28.8</v>
+        <v>23.5</v>
       </c>
       <c r="F48" t="n">
-        <v>1792.29</v>
+        <v>4945.95</v>
       </c>
       <c r="G48" t="n">
-        <v>10.4</v>
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1496.14</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2086.73</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2364.88</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5891.34</v>
+        <v>843.73</v>
       </c>
       <c r="C49" t="n">
-        <v>2.3</v>
+        <v>-14.5</v>
       </c>
       <c r="D49" t="n">
-        <v>18207.02</v>
+        <v>7664.31</v>
       </c>
       <c r="E49" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="F49" t="n">
-        <v>2547.81</v>
+        <v>231.41</v>
       </c>
       <c r="G49" t="n">
-        <v>17.4</v>
+        <v>-2.7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>843.73</v>
+      </c>
+      <c r="I49" t="n">
+        <v>7664.31</v>
+      </c>
+      <c r="J49" t="n">
+        <v>231.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>6379.47</v>
+        <v>1577.2</v>
       </c>
       <c r="C50" t="n">
-        <v>1.2</v>
+        <v>-3.1</v>
       </c>
       <c r="D50" t="n">
-        <v>18927.83</v>
+        <v>10268.94</v>
       </c>
       <c r="E50" t="n">
-        <v>16.7</v>
+        <v>20.4</v>
       </c>
       <c r="F50" t="n">
-        <v>3002.38</v>
+        <v>462.38</v>
       </c>
       <c r="G50" t="n">
-        <v>16.2</v>
+        <v>8.1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>733.47</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2604.63</v>
+      </c>
+      <c r="J50" t="n">
+        <v>230.97</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7702.01</v>
+        <v>2234.46</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.1</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>20825.17</v>
+        <v>12082.47</v>
       </c>
       <c r="E51" t="n">
-        <v>13.8</v>
+        <v>21.9</v>
       </c>
       <c r="F51" t="n">
-        <v>5289.8</v>
+        <v>629.42</v>
       </c>
       <c r="G51" t="n">
-        <v>7</v>
+        <v>-0.3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>657.26</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1813.529999999999</v>
+      </c>
+      <c r="J51" t="n">
+        <v>167.04</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>843.73</v>
+        <v>2848.45</v>
       </c>
       <c r="C52" t="n">
-        <v>-14.5</v>
+        <v>3.8</v>
       </c>
       <c r="D52" t="n">
-        <v>7664.31</v>
+        <v>13442.21</v>
       </c>
       <c r="E52" t="n">
-        <v>17.6</v>
+        <v>21.2</v>
       </c>
       <c r="F52" t="n">
-        <v>231.41</v>
+        <v>847.1799999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.7</v>
+        <v>1.9</v>
+      </c>
+      <c r="H52" t="n">
+        <v>613.9899999999998</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1359.74</v>
+      </c>
+      <c r="J52" t="n">
+        <v>217.76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1577.2</v>
+        <v>3490.77</v>
       </c>
       <c r="C53" t="n">
-        <v>-3.1</v>
+        <v>-0.7</v>
       </c>
       <c r="D53" t="n">
-        <v>10268.94</v>
+        <v>14680.38</v>
       </c>
       <c r="E53" t="n">
-        <v>20.4</v>
+        <v>19.2</v>
       </c>
       <c r="F53" t="n">
-        <v>462.38</v>
+        <v>1136.89</v>
       </c>
       <c r="G53" t="n">
-        <v>8.1</v>
+        <v>6.3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>642.3200000000002</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1238.17</v>
+      </c>
+      <c r="J53" t="n">
+        <v>289.7100000000002</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2234.46</v>
+        <v>4238.6</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="D54" t="n">
-        <v>12082.47</v>
+        <v>15815.67</v>
       </c>
       <c r="E54" t="n">
-        <v>21.9</v>
+        <v>20.1</v>
       </c>
       <c r="F54" t="n">
-        <v>629.42</v>
+        <v>1556.15</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.3</v>
+        <v>16.7</v>
+      </c>
+      <c r="H54" t="n">
+        <v>747.8300000000004</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1135.290000000001</v>
+      </c>
+      <c r="J54" t="n">
+        <v>419.26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2848.45</v>
+        <v>4815.78</v>
       </c>
       <c r="C55" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="D55" t="n">
-        <v>13442.21</v>
+        <v>16655.29</v>
       </c>
       <c r="E55" t="n">
-        <v>21.2</v>
+        <v>19.2</v>
       </c>
       <c r="F55" t="n">
-        <v>847.1799999999999</v>
+        <v>1934.88</v>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>26.9</v>
+      </c>
+      <c r="H55" t="n">
+        <v>577.1799999999994</v>
+      </c>
+      <c r="I55" t="n">
+        <v>839.6200000000008</v>
+      </c>
+      <c r="J55" t="n">
+        <v>378.73</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3490.77</v>
+        <v>5415.31</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.7</v>
+        <v>3.6</v>
       </c>
       <c r="D56" t="n">
-        <v>14680.38</v>
+        <v>17495.34</v>
       </c>
       <c r="E56" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="F56" t="n">
-        <v>1136.89</v>
+        <v>2213.8</v>
       </c>
       <c r="G56" t="n">
-        <v>6.3</v>
+        <v>23.5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>599.5300000000007</v>
+      </c>
+      <c r="I56" t="n">
+        <v>840.0499999999993</v>
+      </c>
+      <c r="J56" t="n">
+        <v>278.9200000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4238.6</v>
+        <v>5891.34</v>
       </c>
       <c r="C57" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="D57" t="n">
-        <v>15815.67</v>
+        <v>18207.02</v>
       </c>
       <c r="E57" t="n">
-        <v>20.1</v>
+        <v>17.5</v>
       </c>
       <c r="F57" t="n">
-        <v>1556.15</v>
+        <v>2547.81</v>
       </c>
       <c r="G57" t="n">
-        <v>16.7</v>
+        <v>17.4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>476.0299999999997</v>
+      </c>
+      <c r="I57" t="n">
+        <v>711.6800000000003</v>
+      </c>
+      <c r="J57" t="n">
+        <v>334.0099999999998</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4815.78</v>
+        <v>6379.47</v>
       </c>
       <c r="C58" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="D58" t="n">
-        <v>16655.29</v>
+        <v>18927.83</v>
       </c>
       <c r="E58" t="n">
-        <v>19.2</v>
+        <v>16.7</v>
       </c>
       <c r="F58" t="n">
-        <v>1934.88</v>
+        <v>3002.38</v>
       </c>
       <c r="G58" t="n">
-        <v>26.9</v>
+        <v>16.2</v>
+      </c>
+      <c r="H58" t="n">
+        <v>488.1300000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>720.8100000000013</v>
+      </c>
+      <c r="J58" t="n">
+        <v>454.5700000000002</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5415.31</v>
+        <v>7702.01</v>
       </c>
       <c r="C59" t="n">
-        <v>3.6</v>
+        <v>-1.1</v>
       </c>
       <c r="D59" t="n">
-        <v>17495.34</v>
+        <v>20825.17</v>
       </c>
       <c r="E59" t="n">
-        <v>18.4</v>
+        <v>13.8</v>
       </c>
       <c r="F59" t="n">
-        <v>2213.8</v>
+        <v>5289.8</v>
       </c>
       <c r="G59" t="n">
-        <v>23.5</v>
+        <v>7</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1322.54</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1897.339999999997</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2287.42</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6371.29</v>
+        <v>1023.59</v>
       </c>
       <c r="C60" t="n">
-        <v>8.1</v>
+        <v>21.3</v>
       </c>
       <c r="D60" t="n">
-        <v>20675.96</v>
+        <v>9993.639999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>13.6</v>
+        <v>30.4</v>
       </c>
       <c r="F60" t="n">
-        <v>2741.04</v>
+        <v>406.85</v>
       </c>
       <c r="G60" t="n">
-        <v>7.6</v>
+        <v>75.8</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1023.59</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9993.639999999999</v>
+      </c>
+      <c r="J60" t="n">
+        <v>406.85</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>6975.7</v>
+        <v>1769.32</v>
       </c>
       <c r="C61" t="n">
-        <v>9.300000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="D61" t="n">
-        <v>21277.86</v>
+        <v>12693.25</v>
       </c>
       <c r="E61" t="n">
-        <v>12.4</v>
+        <v>23.6</v>
       </c>
       <c r="F61" t="n">
-        <v>3213.92</v>
+        <v>719.55</v>
       </c>
       <c r="G61" t="n">
-        <v>7</v>
+        <v>55.6</v>
+      </c>
+      <c r="H61" t="n">
+        <v>745.7299999999999</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2699.610000000001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>312.6999999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8315.83</v>
+        <v>2521.28</v>
       </c>
       <c r="C62" t="n">
-        <v>8.300000000000001</v>
+        <v>12.8</v>
       </c>
       <c r="D62" t="n">
-        <v>23485.68</v>
+        <v>14712.15</v>
       </c>
       <c r="E62" t="n">
-        <v>12.2</v>
+        <v>21.8</v>
       </c>
       <c r="F62" t="n">
-        <v>5900.6</v>
+        <v>920.97</v>
       </c>
       <c r="G62" t="n">
-        <v>0.2</v>
+        <v>46.3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>751.9600000000003</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2018.9</v>
+      </c>
+      <c r="J62" t="n">
+        <v>201.4200000000001</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1023.59</v>
+        <v>3198.08</v>
       </c>
       <c r="C63" t="n">
-        <v>21.3</v>
+        <v>12.3</v>
       </c>
       <c r="D63" t="n">
-        <v>9993.639999999999</v>
+        <v>16004.28</v>
       </c>
       <c r="E63" t="n">
-        <v>30.4</v>
+        <v>19.1</v>
       </c>
       <c r="F63" t="n">
-        <v>406.85</v>
+        <v>1186.46</v>
       </c>
       <c r="G63" t="n">
-        <v>75.8</v>
+        <v>40</v>
+      </c>
+      <c r="H63" t="n">
+        <v>676.7999999999997</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1292.130000000001</v>
+      </c>
+      <c r="J63" t="n">
+        <v>265.49</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1769.32</v>
+        <v>4028.94</v>
       </c>
       <c r="C64" t="n">
-        <v>12.2</v>
+        <v>15.4</v>
       </c>
       <c r="D64" t="n">
-        <v>12693.25</v>
+        <v>17267.91</v>
       </c>
       <c r="E64" t="n">
-        <v>23.6</v>
+        <v>17.6</v>
       </c>
       <c r="F64" t="n">
-        <v>719.55</v>
+        <v>1533.21</v>
       </c>
       <c r="G64" t="n">
-        <v>55.6</v>
+        <v>34.9</v>
+      </c>
+      <c r="H64" t="n">
+        <v>830.8600000000001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1263.629999999999</v>
+      </c>
+      <c r="J64" t="n">
+        <v>346.75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2521.28</v>
+        <v>4542.32</v>
       </c>
       <c r="C65" t="n">
-        <v>12.8</v>
+        <v>7.2</v>
       </c>
       <c r="D65" t="n">
-        <v>14712.15</v>
+        <v>18175.25</v>
       </c>
       <c r="E65" t="n">
-        <v>21.8</v>
+        <v>14.9</v>
       </c>
       <c r="F65" t="n">
-        <v>920.97</v>
+        <v>1838.01</v>
       </c>
       <c r="G65" t="n">
-        <v>46.3</v>
+        <v>18.1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>513.3799999999997</v>
+      </c>
+      <c r="I65" t="n">
+        <v>907.3400000000001</v>
+      </c>
+      <c r="J65" t="n">
+        <v>304.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3198.08</v>
+        <v>5198.06</v>
       </c>
       <c r="C66" t="n">
-        <v>12.3</v>
+        <v>7.9</v>
       </c>
       <c r="D66" t="n">
-        <v>16004.28</v>
+        <v>18985.81</v>
       </c>
       <c r="E66" t="n">
-        <v>19.1</v>
+        <v>14</v>
       </c>
       <c r="F66" t="n">
-        <v>1186.46</v>
+        <v>2046.72</v>
       </c>
       <c r="G66" t="n">
-        <v>40</v>
+        <v>5.8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>655.7400000000007</v>
+      </c>
+      <c r="I66" t="n">
+        <v>810.5600000000013</v>
+      </c>
+      <c r="J66" t="n">
+        <v>208.71</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4028.94</v>
+        <v>5921.28</v>
       </c>
       <c r="C67" t="n">
-        <v>15.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>17267.91</v>
+        <v>19978.99</v>
       </c>
       <c r="E67" t="n">
-        <v>17.6</v>
+        <v>14.2</v>
       </c>
       <c r="F67" t="n">
-        <v>1533.21</v>
+        <v>2349.82</v>
       </c>
       <c r="G67" t="n">
-        <v>34.9</v>
+        <v>6.1</v>
+      </c>
+      <c r="H67" t="n">
+        <v>723.2199999999993</v>
+      </c>
+      <c r="I67" t="n">
+        <v>993.1800000000003</v>
+      </c>
+      <c r="J67" t="n">
+        <v>303.1000000000001</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4542.32</v>
+        <v>6371.29</v>
       </c>
       <c r="C68" t="n">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
       <c r="D68" t="n">
-        <v>18175.25</v>
+        <v>20675.96</v>
       </c>
       <c r="E68" t="n">
-        <v>14.9</v>
+        <v>13.6</v>
       </c>
       <c r="F68" t="n">
-        <v>1838.01</v>
+        <v>2741.04</v>
       </c>
       <c r="G68" t="n">
-        <v>18.1</v>
+        <v>7.6</v>
+      </c>
+      <c r="H68" t="n">
+        <v>450.0100000000002</v>
+      </c>
+      <c r="I68" t="n">
+        <v>696.9699999999975</v>
+      </c>
+      <c r="J68" t="n">
+        <v>391.2199999999998</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5198.06</v>
+        <v>6975.7</v>
       </c>
       <c r="C69" t="n">
-        <v>7.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>18985.81</v>
+        <v>21277.86</v>
       </c>
       <c r="E69" t="n">
-        <v>14</v>
+        <v>12.4</v>
       </c>
       <c r="F69" t="n">
-        <v>2046.72</v>
+        <v>3213.92</v>
       </c>
       <c r="G69" t="n">
-        <v>5.8</v>
+        <v>7</v>
+      </c>
+      <c r="H69" t="n">
+        <v>604.4099999999999</v>
+      </c>
+      <c r="I69" t="n">
+        <v>601.9000000000015</v>
+      </c>
+      <c r="J69" t="n">
+        <v>472.8800000000001</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>5921.28</v>
+        <v>8315.83</v>
       </c>
       <c r="C70" t="n">
-        <v>9.300000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>19978.99</v>
+        <v>23485.68</v>
       </c>
       <c r="E70" t="n">
-        <v>14.2</v>
+        <v>12.2</v>
       </c>
       <c r="F70" t="n">
-        <v>2349.82</v>
+        <v>5900.6</v>
       </c>
       <c r="G70" t="n">
-        <v>6.1</v>
+        <v>0.2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1340.13</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2207.82</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2686.68</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6926.79</v>
+        <v>847.72</v>
       </c>
       <c r="C71" t="n">
-        <v>8.699999999999999</v>
+        <v>-17.2</v>
       </c>
       <c r="D71" t="n">
-        <v>23120.04</v>
+        <v>10734.72</v>
       </c>
       <c r="E71" t="n">
-        <v>11.8</v>
+        <v>7.4</v>
       </c>
       <c r="F71" t="n">
-        <v>2875.73</v>
+        <v>364.2</v>
       </c>
       <c r="G71" t="n">
-        <v>4.9</v>
+        <v>-10.5</v>
+      </c>
+      <c r="H71" t="n">
+        <v>847.72</v>
+      </c>
+      <c r="I71" t="n">
+        <v>10734.72</v>
+      </c>
+      <c r="J71" t="n">
+        <v>364.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7559.41</v>
+        <v>1681.4</v>
       </c>
       <c r="C72" t="n">
-        <v>8.4</v>
+        <v>-5</v>
       </c>
       <c r="D72" t="n">
-        <v>23907.21</v>
+        <v>14197.8</v>
       </c>
       <c r="E72" t="n">
-        <v>12.4</v>
+        <v>11.9</v>
       </c>
       <c r="F72" t="n">
-        <v>3324.64</v>
+        <v>705.15</v>
       </c>
       <c r="G72" t="n">
-        <v>3.4</v>
+        <v>-2</v>
+      </c>
+      <c r="H72" t="n">
+        <v>833.6800000000001</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3463.08</v>
+      </c>
+      <c r="J72" t="n">
+        <v>340.95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8979.870000000001</v>
+        <v>2557.34</v>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="D73" t="n">
-        <v>25937.69</v>
+        <v>16325.99</v>
       </c>
       <c r="E73" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="F73" t="n">
-        <v>5923.4</v>
+        <v>1030.58</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.8</v>
+        <v>11.9</v>
+      </c>
+      <c r="H73" t="n">
+        <v>875.9400000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2128.190000000001</v>
+      </c>
+      <c r="J73" t="n">
+        <v>325.4299999999999</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>847.72</v>
+        <v>3208.96</v>
       </c>
       <c r="C74" t="n">
-        <v>-17.2</v>
+        <v>0.3</v>
       </c>
       <c r="D74" t="n">
-        <v>10734.72</v>
+        <v>17895.71</v>
       </c>
       <c r="E74" t="n">
-        <v>7.4</v>
+        <v>11.8</v>
       </c>
       <c r="F74" t="n">
-        <v>364.2</v>
+        <v>1296.53</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.5</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H74" t="n">
+        <v>651.6199999999999</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1569.719999999999</v>
+      </c>
+      <c r="J74" t="n">
+        <v>265.95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1681.4</v>
+        <v>4059.84</v>
       </c>
       <c r="C75" t="n">
-        <v>-5</v>
+        <v>0.8</v>
       </c>
       <c r="D75" t="n">
-        <v>14197.8</v>
+        <v>19377.14</v>
       </c>
       <c r="E75" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="F75" t="n">
-        <v>705.15</v>
+        <v>1646.35</v>
       </c>
       <c r="G75" t="n">
-        <v>-2</v>
+        <v>7.4</v>
+      </c>
+      <c r="H75" t="n">
+        <v>850.8800000000001</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1481.43</v>
+      </c>
+      <c r="J75" t="n">
+        <v>349.8199999999999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2557.34</v>
+        <v>4900.05</v>
       </c>
       <c r="C76" t="n">
-        <v>1.4</v>
+        <v>7.9</v>
       </c>
       <c r="D76" t="n">
-        <v>16325.99</v>
+        <v>20538.67</v>
       </c>
       <c r="E76" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F76" t="n">
-        <v>1030.58</v>
+        <v>1929.96</v>
       </c>
       <c r="G76" t="n">
-        <v>11.9</v>
+        <v>5</v>
+      </c>
+      <c r="H76" t="n">
+        <v>840.21</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1161.529999999999</v>
+      </c>
+      <c r="J76" t="n">
+        <v>283.6100000000001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3208.96</v>
+        <v>5545.08</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3</v>
+        <v>6.7</v>
       </c>
       <c r="D77" t="n">
-        <v>17895.71</v>
+        <v>21357.06</v>
       </c>
       <c r="E77" t="n">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="F77" t="n">
-        <v>1296.53</v>
+        <v>2242.01</v>
       </c>
       <c r="G77" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
+      </c>
+      <c r="H77" t="n">
+        <v>645.0299999999997</v>
+      </c>
+      <c r="I77" t="n">
+        <v>818.3900000000031</v>
+      </c>
+      <c r="J77" t="n">
+        <v>312.0500000000002</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4059.84</v>
+        <v>6233.45</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="D78" t="n">
-        <v>19377.14</v>
+        <v>22340.39</v>
       </c>
       <c r="E78" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F78" t="n">
-        <v>1646.35</v>
+        <v>2566.27</v>
       </c>
       <c r="G78" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H78" t="n">
+        <v>688.3699999999999</v>
+      </c>
+      <c r="I78" t="n">
+        <v>983.3299999999981</v>
+      </c>
+      <c r="J78" t="n">
+        <v>324.2599999999998</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4900.05</v>
+        <v>6926.79</v>
       </c>
       <c r="C79" t="n">
-        <v>7.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>20538.67</v>
+        <v>23120.04</v>
       </c>
       <c r="E79" t="n">
-        <v>13</v>
+        <v>11.8</v>
       </c>
       <c r="F79" t="n">
-        <v>1929.96</v>
+        <v>2875.73</v>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>4.9</v>
+      </c>
+      <c r="H79" t="n">
+        <v>693.3400000000001</v>
+      </c>
+      <c r="I79" t="n">
+        <v>779.6500000000015</v>
+      </c>
+      <c r="J79" t="n">
+        <v>309.46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>5545.08</v>
+        <v>7559.41</v>
       </c>
       <c r="C80" t="n">
-        <v>6.7</v>
+        <v>8.4</v>
       </c>
       <c r="D80" t="n">
-        <v>21357.06</v>
+        <v>23907.21</v>
       </c>
       <c r="E80" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F80" t="n">
-        <v>2242.01</v>
+        <v>3324.64</v>
       </c>
       <c r="G80" t="n">
-        <v>9.5</v>
+        <v>3.4</v>
+      </c>
+      <c r="H80" t="n">
+        <v>632.6199999999999</v>
+      </c>
+      <c r="I80" t="n">
+        <v>787.1699999999983</v>
+      </c>
+      <c r="J80" t="n">
+        <v>448.9099999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6233.45</v>
+        <v>8979.870000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>22340.39</v>
+        <v>25937.69</v>
       </c>
       <c r="E81" t="n">
-        <v>11.8</v>
+        <v>9.4</v>
       </c>
       <c r="F81" t="n">
-        <v>2566.27</v>
+        <v>5923.4</v>
       </c>
       <c r="G81" t="n">
-        <v>9.199999999999999</v>
+        <v>-5.8</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1420.460000000001</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2030.48</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2598.76</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7158.38</v>
+        <v>1163.05</v>
       </c>
       <c r="C82" t="n">
-        <v>3.3</v>
+        <v>37.2</v>
       </c>
       <c r="D82" t="n">
-        <v>25703.01</v>
+        <v>13230.22</v>
       </c>
       <c r="E82" t="n">
-        <v>11.2</v>
+        <v>23.2</v>
       </c>
       <c r="F82" t="n">
-        <v>2826.81</v>
+        <v>403.82</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.7</v>
+        <v>10.9</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1163.05</v>
+      </c>
+      <c r="I82" t="n">
+        <v>13230.22</v>
+      </c>
+      <c r="J82" t="n">
+        <v>403.82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7719.62</v>
+        <v>2163.83</v>
       </c>
       <c r="C83" t="n">
-        <v>2.1</v>
+        <v>28.7</v>
       </c>
       <c r="D83" t="n">
-        <v>26467.84</v>
+        <v>16755.66</v>
       </c>
       <c r="E83" t="n">
-        <v>10.7</v>
+        <v>18</v>
       </c>
       <c r="F83" t="n">
-        <v>3193.19</v>
+        <v>742.88</v>
       </c>
       <c r="G83" t="n">
-        <v>-4</v>
+        <v>5.3</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1000.78</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3525.440000000001</v>
+      </c>
+      <c r="J83" t="n">
+        <v>339.06</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>9321.15</v>
+        <v>2940.45</v>
       </c>
       <c r="C84" t="n">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>28895.35</v>
+        <v>18865.93</v>
       </c>
       <c r="E84" t="n">
-        <v>11.4</v>
+        <v>15.6</v>
       </c>
       <c r="F84" t="n">
-        <v>5488.58</v>
+        <v>1020.39</v>
       </c>
       <c r="G84" t="n">
-        <v>-10</v>
+        <v>-1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>776.6199999999999</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2110.27</v>
+      </c>
+      <c r="J84" t="n">
+        <v>277.51</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1163.05</v>
+        <v>3734.58</v>
       </c>
       <c r="C85" t="n">
-        <v>37.2</v>
+        <v>16.4</v>
       </c>
       <c r="D85" t="n">
-        <v>13230.22</v>
+        <v>20521.54</v>
       </c>
       <c r="E85" t="n">
-        <v>23.2</v>
+        <v>14.7</v>
       </c>
       <c r="F85" t="n">
-        <v>403.82</v>
+        <v>1291.91</v>
       </c>
       <c r="G85" t="n">
-        <v>10.9</v>
+        <v>-0.4</v>
+      </c>
+      <c r="H85" t="n">
+        <v>794.1300000000001</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1655.610000000001</v>
+      </c>
+      <c r="J85" t="n">
+        <v>271.5200000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2163.83</v>
+        <v>4872.88</v>
       </c>
       <c r="C86" t="n">
-        <v>28.7</v>
+        <v>20</v>
       </c>
       <c r="D86" t="n">
-        <v>16755.66</v>
+        <v>22349.32</v>
       </c>
       <c r="E86" t="n">
-        <v>18</v>
+        <v>15.3</v>
       </c>
       <c r="F86" t="n">
-        <v>742.88</v>
+        <v>1585.35</v>
       </c>
       <c r="G86" t="n">
-        <v>5.3</v>
+        <v>-3.7</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1138.3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1827.779999999999</v>
+      </c>
+      <c r="J86" t="n">
+        <v>293.4399999999998</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2940.45</v>
+        <v>5482.64</v>
       </c>
       <c r="C87" t="n">
-        <v>15</v>
+        <v>11.9</v>
       </c>
       <c r="D87" t="n">
-        <v>18865.93</v>
+        <v>23375.16</v>
       </c>
       <c r="E87" t="n">
-        <v>15.6</v>
+        <v>13.8</v>
       </c>
       <c r="F87" t="n">
-        <v>1020.39</v>
+        <v>1946.76</v>
       </c>
       <c r="G87" t="n">
-        <v>-1</v>
+        <v>0.9</v>
+      </c>
+      <c r="H87" t="n">
+        <v>609.7600000000002</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1025.84</v>
+      </c>
+      <c r="J87" t="n">
+        <v>361.4100000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3734.58</v>
+        <v>6082.18</v>
       </c>
       <c r="C88" t="n">
-        <v>16.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>20521.54</v>
+        <v>24241.66</v>
       </c>
       <c r="E88" t="n">
-        <v>14.7</v>
+        <v>13.5</v>
       </c>
       <c r="F88" t="n">
-        <v>1291.91</v>
+        <v>2191.16</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.4</v>
+        <v>-2.3</v>
+      </c>
+      <c r="H88" t="n">
+        <v>599.54</v>
+      </c>
+      <c r="I88" t="n">
+        <v>866.5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>244.3999999999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4872.88</v>
+        <v>6695.61</v>
       </c>
       <c r="C89" t="n">
-        <v>20</v>
+        <v>7.4</v>
       </c>
       <c r="D89" t="n">
-        <v>22349.32</v>
+        <v>25026.31</v>
       </c>
       <c r="E89" t="n">
-        <v>15.3</v>
+        <v>12</v>
       </c>
       <c r="F89" t="n">
-        <v>1585.35</v>
+        <v>2472.87</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
+      </c>
+      <c r="H89" t="n">
+        <v>613.4299999999994</v>
+      </c>
+      <c r="I89" t="n">
+        <v>784.6500000000015</v>
+      </c>
+      <c r="J89" t="n">
+        <v>281.71</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>5482.64</v>
+        <v>7158.38</v>
       </c>
       <c r="C90" t="n">
-        <v>11.9</v>
+        <v>3.3</v>
       </c>
       <c r="D90" t="n">
-        <v>23375.16</v>
+        <v>25703.01</v>
       </c>
       <c r="E90" t="n">
-        <v>13.8</v>
+        <v>11.2</v>
       </c>
       <c r="F90" t="n">
-        <v>1946.76</v>
+        <v>2826.81</v>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>-1.7</v>
+      </c>
+      <c r="H90" t="n">
+        <v>462.7700000000004</v>
+      </c>
+      <c r="I90" t="n">
+        <v>676.6999999999971</v>
+      </c>
+      <c r="J90" t="n">
+        <v>353.9400000000001</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6082.18</v>
+        <v>7719.62</v>
       </c>
       <c r="C91" t="n">
-        <v>9.699999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="D91" t="n">
-        <v>24241.66</v>
+        <v>26467.84</v>
       </c>
       <c r="E91" t="n">
-        <v>13.5</v>
+        <v>10.7</v>
       </c>
       <c r="F91" t="n">
-        <v>2191.16</v>
+        <v>3193.19</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.3</v>
+        <v>-4</v>
+      </c>
+      <c r="H91" t="n">
+        <v>561.2399999999998</v>
+      </c>
+      <c r="I91" t="n">
+        <v>764.8300000000017</v>
+      </c>
+      <c r="J91" t="n">
+        <v>366.3800000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6695.61</v>
+        <v>9321.15</v>
       </c>
       <c r="C92" t="n">
-        <v>7.4</v>
+        <v>2.5</v>
       </c>
       <c r="D92" t="n">
-        <v>25026.31</v>
+        <v>28895.35</v>
       </c>
       <c r="E92" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="F92" t="n">
-        <v>2472.87</v>
+        <v>5488.58</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.6</v>
+        <v>-10</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1601.53</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2427.509999999998</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2295.39</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>8719.67</v>
+        <v>1296.95</v>
       </c>
       <c r="C93" t="n">
-        <v>21.8</v>
+        <v>11.5</v>
       </c>
       <c r="D93" t="n">
-        <v>31004.2</v>
+        <v>15324.79</v>
       </c>
       <c r="E93" t="n">
-        <v>20.6</v>
+        <v>15.8</v>
       </c>
       <c r="F93" t="n">
-        <v>3390.67</v>
+        <v>542.91</v>
       </c>
       <c r="G93" t="n">
-        <v>19.9</v>
+        <v>34.4</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1296.95</v>
+      </c>
+      <c r="I93" t="n">
+        <v>15324.79</v>
+      </c>
+      <c r="J93" t="n">
+        <v>542.91</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>10448.93</v>
+        <v>2289.1</v>
       </c>
       <c r="C94" t="n">
-        <v>35.4</v>
+        <v>5.7</v>
       </c>
       <c r="D94" t="n">
-        <v>32138.25</v>
+        <v>19200.29</v>
       </c>
       <c r="E94" t="n">
-        <v>21.4</v>
+        <v>14.5</v>
       </c>
       <c r="F94" t="n">
-        <v>3932.4</v>
+        <v>940.67</v>
       </c>
       <c r="G94" t="n">
-        <v>23.1</v>
+        <v>26.2</v>
+      </c>
+      <c r="H94" t="n">
+        <v>992.1499999999999</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3875.5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>397.76</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>12352.16</v>
+        <v>3090.94</v>
       </c>
       <c r="C95" t="n">
-        <v>23</v>
+        <v>5.1</v>
       </c>
       <c r="D95" t="n">
-        <v>34439.58</v>
+        <v>21633.8</v>
       </c>
       <c r="E95" t="n">
-        <v>13</v>
+        <v>14.7</v>
       </c>
       <c r="F95" t="n">
-        <v>6515.36</v>
+        <v>1220.76</v>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>19.6</v>
+      </c>
+      <c r="H95" t="n">
+        <v>801.8400000000001</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2433.509999999998</v>
+      </c>
+      <c r="J95" t="n">
+        <v>280.09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1296.95</v>
+        <v>3910.53</v>
       </c>
       <c r="C96" t="n">
-        <v>11.5</v>
+        <v>4.7</v>
       </c>
       <c r="D96" t="n">
-        <v>15324.79</v>
+        <v>23677.74</v>
       </c>
       <c r="E96" t="n">
-        <v>15.8</v>
+        <v>15.4</v>
       </c>
       <c r="F96" t="n">
-        <v>542.91</v>
+        <v>1470.11</v>
       </c>
       <c r="G96" t="n">
-        <v>34.4</v>
+        <v>13.8</v>
+      </c>
+      <c r="H96" t="n">
+        <v>819.5900000000001</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2043.940000000002</v>
+      </c>
+      <c r="J96" t="n">
+        <v>249.3499999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2289.1</v>
+        <v>5228.35</v>
       </c>
       <c r="C97" t="n">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="D97" t="n">
-        <v>19200.29</v>
+        <v>25915.41</v>
       </c>
       <c r="E97" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="F97" t="n">
-        <v>940.67</v>
+        <v>1829.51</v>
       </c>
       <c r="G97" t="n">
-        <v>26.2</v>
+        <v>15.4</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1317.82</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2237.669999999998</v>
+      </c>
+      <c r="J97" t="n">
+        <v>359.4000000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3090.94</v>
+        <v>6013.6</v>
       </c>
       <c r="C98" t="n">
-        <v>5.1</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>21633.8</v>
+        <v>27216.55</v>
       </c>
       <c r="E98" t="n">
-        <v>14.7</v>
+        <v>16.4</v>
       </c>
       <c r="F98" t="n">
-        <v>1220.76</v>
+        <v>2242.25</v>
       </c>
       <c r="G98" t="n">
-        <v>19.6</v>
+        <v>15.2</v>
+      </c>
+      <c r="H98" t="n">
+        <v>785.25</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1301.139999999999</v>
+      </c>
+      <c r="J98" t="n">
+        <v>412.74</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3910.53</v>
+        <v>6893.77</v>
       </c>
       <c r="C99" t="n">
-        <v>4.7</v>
+        <v>13.3</v>
       </c>
       <c r="D99" t="n">
-        <v>23677.74</v>
+        <v>28526.37</v>
       </c>
       <c r="E99" t="n">
-        <v>15.4</v>
+        <v>17.7</v>
       </c>
       <c r="F99" t="n">
-        <v>1470.11</v>
+        <v>2619.51</v>
       </c>
       <c r="G99" t="n">
-        <v>13.8</v>
+        <v>19.5</v>
+      </c>
+      <c r="H99" t="n">
+        <v>880.1700000000001</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1309.82</v>
+      </c>
+      <c r="J99" t="n">
+        <v>377.2600000000002</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>5228.35</v>
+        <v>7977.68</v>
       </c>
       <c r="C100" t="n">
-        <v>7.3</v>
+        <v>19.1</v>
       </c>
       <c r="D100" t="n">
-        <v>25915.41</v>
+        <v>30012.15</v>
       </c>
       <c r="E100" t="n">
-        <v>16</v>
+        <v>19.9</v>
       </c>
       <c r="F100" t="n">
-        <v>1829.51</v>
+        <v>2994.75</v>
       </c>
       <c r="G100" t="n">
-        <v>15.4</v>
+        <v>21.1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1083.91</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1485.780000000002</v>
+      </c>
+      <c r="J100" t="n">
+        <v>375.2399999999998</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>6013.6</v>
+        <v>8719.67</v>
       </c>
       <c r="C101" t="n">
-        <v>9.699999999999999</v>
+        <v>21.8</v>
       </c>
       <c r="D101" t="n">
-        <v>27216.55</v>
+        <v>31004.2</v>
       </c>
       <c r="E101" t="n">
-        <v>16.4</v>
+        <v>20.6</v>
       </c>
       <c r="F101" t="n">
-        <v>2242.25</v>
+        <v>3390.67</v>
       </c>
       <c r="G101" t="n">
-        <v>15.2</v>
+        <v>19.9</v>
+      </c>
+      <c r="H101" t="n">
+        <v>741.9899999999998</v>
+      </c>
+      <c r="I101" t="n">
+        <v>992.0499999999993</v>
+      </c>
+      <c r="J101" t="n">
+        <v>395.9200000000001</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6893.77</v>
+        <v>10448.93</v>
       </c>
       <c r="C102" t="n">
-        <v>13.3</v>
+        <v>35.4</v>
       </c>
       <c r="D102" t="n">
-        <v>28526.37</v>
+        <v>32138.25</v>
       </c>
       <c r="E102" t="n">
-        <v>17.7</v>
+        <v>21.4</v>
       </c>
       <c r="F102" t="n">
-        <v>2619.51</v>
+        <v>3932.4</v>
       </c>
       <c r="G102" t="n">
-        <v>19.5</v>
+        <v>23.1</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1729.26</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1134.049999999999</v>
+      </c>
+      <c r="J102" t="n">
+        <v>541.73</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7977.68</v>
+        <v>12352.16</v>
       </c>
       <c r="C103" t="n">
-        <v>19.1</v>
+        <v>23</v>
       </c>
       <c r="D103" t="n">
-        <v>30012.15</v>
+        <v>34439.58</v>
       </c>
       <c r="E103" t="n">
-        <v>19.9</v>
+        <v>13</v>
       </c>
       <c r="F103" t="n">
-        <v>2994.75</v>
+        <v>6515.36</v>
       </c>
       <c r="G103" t="n">
-        <v>21.1</v>
+        <v>1.6</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1903.23</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2301.330000000002</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2582.96</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>14235.2949</v>
+        <v>1600.39</v>
       </c>
       <c r="C104" t="n">
-        <v>63.3</v>
+        <v>23.3</v>
       </c>
       <c r="D104" t="n">
-        <v>41007.7817</v>
+        <v>23166.39</v>
       </c>
       <c r="E104" t="n">
-        <v>32.3</v>
+        <v>31.8</v>
       </c>
       <c r="F104" t="n">
-        <v>4400.4462</v>
+        <v>716.63</v>
       </c>
       <c r="G104" t="n">
-        <v>29.8</v>
+        <v>33.1</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1600.39</v>
+      </c>
+      <c r="I104" t="n">
+        <v>23166.39</v>
+      </c>
+      <c r="J104" t="n">
+        <v>716.63</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>15609.2263</v>
+        <v>3343.99</v>
       </c>
       <c r="C105" t="n">
-        <v>49.4</v>
+        <v>46.1</v>
       </c>
       <c r="D105" t="n">
-        <v>42416.6568</v>
+        <v>26421.81</v>
       </c>
       <c r="E105" t="n">
-        <v>32</v>
+        <v>37.6</v>
       </c>
       <c r="F105" t="n">
-        <v>5067.3554</v>
+        <v>1182.43</v>
       </c>
       <c r="G105" t="n">
-        <v>28.9</v>
+        <v>25.7</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1743.6</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3255.420000000002</v>
+      </c>
+      <c r="J105" t="n">
+        <v>465.8000000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>17460.9802</v>
+        <v>4905.69</v>
       </c>
       <c r="C106" t="n">
-        <v>40.6</v>
+        <v>58.7</v>
       </c>
       <c r="D106" t="n">
-        <v>44615.7213</v>
+        <v>29201.34</v>
       </c>
       <c r="E106" t="n">
-        <v>29.2</v>
+        <v>35</v>
       </c>
       <c r="F106" t="n">
-        <v>7931.4015</v>
+        <v>1642</v>
       </c>
       <c r="G106" t="n">
-        <v>16.2</v>
+        <v>34.5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1561.7</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2779.529999999999</v>
+      </c>
+      <c r="J106" t="n">
+        <v>459.5699999999999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1600.39</v>
+        <v>6783.06</v>
       </c>
       <c r="C107" t="n">
-        <v>23.3</v>
+        <v>73.5</v>
       </c>
       <c r="D107" t="n">
-        <v>23166.39</v>
+        <v>31681.6</v>
       </c>
       <c r="E107" t="n">
-        <v>31.8</v>
+        <v>33.8</v>
       </c>
       <c r="F107" t="n">
-        <v>716.63</v>
+        <v>2089.58</v>
       </c>
       <c r="G107" t="n">
-        <v>33.1</v>
+        <v>42.1</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1877.370000000001</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2480.259999999998</v>
+      </c>
+      <c r="J107" t="n">
+        <v>447.5799999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3343.99</v>
+        <v>8931.190000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>46.1</v>
+        <v>70.8</v>
       </c>
       <c r="D108" t="n">
-        <v>26421.81</v>
+        <v>34339.91</v>
       </c>
       <c r="E108" t="n">
-        <v>37.6</v>
+        <v>32.5</v>
       </c>
       <c r="F108" t="n">
-        <v>1182.43</v>
+        <v>2552.77</v>
       </c>
       <c r="G108" t="n">
-        <v>25.7</v>
+        <v>39.5</v>
+      </c>
+      <c r="H108" t="n">
+        <v>2148.13</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2658.310000000005</v>
+      </c>
+      <c r="J108" t="n">
+        <v>463.1900000000001</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4905.69</v>
+        <v>10022.84</v>
       </c>
       <c r="C109" t="n">
-        <v>58.7</v>
+        <v>66.7</v>
       </c>
       <c r="D109" t="n">
-        <v>29201.34</v>
+        <v>36037.79</v>
       </c>
       <c r="E109" t="n">
-        <v>35</v>
+        <v>32.4</v>
       </c>
       <c r="F109" t="n">
-        <v>1642</v>
+        <v>2961.13</v>
       </c>
       <c r="G109" t="n">
-        <v>34.5</v>
+        <v>32.1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1091.65</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1697.879999999997</v>
+      </c>
+      <c r="J109" t="n">
+        <v>408.3600000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6783.06</v>
+        <v>11352.3</v>
       </c>
       <c r="C110" t="n">
-        <v>73.5</v>
+        <v>64.7</v>
       </c>
       <c r="D110" t="n">
-        <v>31681.6</v>
+        <v>37614.76</v>
       </c>
       <c r="E110" t="n">
-        <v>33.8</v>
+        <v>31.9</v>
       </c>
       <c r="F110" t="n">
-        <v>2089.58</v>
+        <v>3372.77</v>
       </c>
       <c r="G110" t="n">
-        <v>42.1</v>
+        <v>28.8</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1329.459999999999</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1576.970000000001</v>
+      </c>
+      <c r="J110" t="n">
+        <v>411.6399999999999</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>8931.190000000001</v>
+        <v>12975.42</v>
       </c>
       <c r="C111" t="n">
-        <v>70.8</v>
+        <v>62.6</v>
       </c>
       <c r="D111" t="n">
-        <v>34339.91</v>
+        <v>39437.63</v>
       </c>
       <c r="E111" t="n">
-        <v>32.5</v>
+        <v>31.4</v>
       </c>
       <c r="F111" t="n">
-        <v>2552.77</v>
+        <v>3866.74</v>
       </c>
       <c r="G111" t="n">
-        <v>39.5</v>
+        <v>29.1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1623.120000000001</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1822.869999999995</v>
+      </c>
+      <c r="J111" t="n">
+        <v>493.9699999999998</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>10022.84</v>
+        <v>14235.2949</v>
       </c>
       <c r="C112" t="n">
-        <v>66.7</v>
+        <v>63.3</v>
       </c>
       <c r="D112" t="n">
-        <v>36037.79</v>
+        <v>41007.7817</v>
       </c>
       <c r="E112" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="F112" t="n">
-        <v>2961.13</v>
+        <v>4400.4462</v>
       </c>
       <c r="G112" t="n">
-        <v>32.1</v>
+        <v>29.8</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1259.874900000001</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1570.151700000002</v>
+      </c>
+      <c r="J112" t="n">
+        <v>533.7062000000005</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>11352.3</v>
+        <v>15609.2263</v>
       </c>
       <c r="C113" t="n">
-        <v>64.7</v>
+        <v>49.4</v>
       </c>
       <c r="D113" t="n">
-        <v>37614.76</v>
+        <v>42416.6568</v>
       </c>
       <c r="E113" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="F113" t="n">
-        <v>3372.77</v>
+        <v>5067.3554</v>
       </c>
       <c r="G113" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1373.931399999999</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1408.875099999997</v>
+      </c>
+      <c r="J113" t="n">
+        <v>666.9092000000001</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>12975.42</v>
+        <v>17460.9802</v>
       </c>
       <c r="C114" t="n">
-        <v>62.6</v>
+        <v>40.6</v>
       </c>
       <c r="D114" t="n">
-        <v>39437.63</v>
+        <v>44615.7213</v>
       </c>
       <c r="E114" t="n">
-        <v>31.4</v>
+        <v>29.2</v>
       </c>
       <c r="F114" t="n">
-        <v>3866.74</v>
+        <v>7931.4015</v>
       </c>
       <c r="G114" t="n">
-        <v>29.1</v>
+        <v>16.2</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1851.753900000002</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2199.0645</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2864.0461</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>17275.3155</v>
+        <v>1959.9836</v>
       </c>
       <c r="C115" t="n">
-        <v>21.4</v>
+        <v>22.5</v>
       </c>
       <c r="D115" t="n">
-        <v>52841.4984</v>
+        <v>31783.1446</v>
       </c>
       <c r="E115" t="n">
-        <v>28.9</v>
+        <v>37.2</v>
       </c>
       <c r="F115" t="n">
-        <v>5207.7204</v>
+        <v>801.2154</v>
       </c>
       <c r="G115" t="n">
-        <v>18.3</v>
+        <v>11.8</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1959.9836</v>
+      </c>
+      <c r="I115" t="n">
+        <v>31783.1446</v>
+      </c>
+      <c r="J115" t="n">
+        <v>801.2154</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>18999.2778</v>
+        <v>4007.1846</v>
       </c>
       <c r="C116" t="n">
-        <v>21.7</v>
+        <v>19.8</v>
       </c>
       <c r="D116" t="n">
-        <v>54657.777</v>
+        <v>35602.2894</v>
       </c>
       <c r="E116" t="n">
-        <v>28.9</v>
+        <v>34.7</v>
       </c>
       <c r="F116" t="n">
-        <v>6157.1478</v>
+        <v>1308.624</v>
       </c>
       <c r="G116" t="n">
-        <v>21.5</v>
+        <v>10.7</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2047.201</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3819.144800000002</v>
+      </c>
+      <c r="J116" t="n">
+        <v>507.4086</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>20670.723</v>
+        <v>5912.984</v>
       </c>
       <c r="C117" t="n">
-        <v>18.3</v>
+        <v>20.5</v>
       </c>
       <c r="D117" t="n">
-        <v>56278.1825</v>
+        <v>38639.6639</v>
       </c>
       <c r="E117" t="n">
-        <v>26.1</v>
+        <v>32.3</v>
       </c>
       <c r="F117" t="n">
-        <v>9045.270699999999</v>
+        <v>1771.6149</v>
       </c>
       <c r="G117" t="n">
-        <v>9.199999999999999</v>
+        <v>7.9</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1905.7994</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3037.374499999998</v>
+      </c>
+      <c r="J117" t="n">
+        <v>462.9909</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1959.9836</v>
+        <v>8197.247799999999</v>
       </c>
       <c r="C118" t="n">
-        <v>22.5</v>
+        <v>20.8</v>
       </c>
       <c r="D118" t="n">
-        <v>31783.1446</v>
+        <v>41918.2356</v>
       </c>
       <c r="E118" t="n">
-        <v>37.2</v>
+        <v>32.3</v>
       </c>
       <c r="F118" t="n">
-        <v>801.2154</v>
+        <v>2243.0082</v>
       </c>
       <c r="G118" t="n">
-        <v>11.8</v>
+        <v>7.3</v>
+      </c>
+      <c r="H118" t="n">
+        <v>2284.263799999999</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3278.5717</v>
+      </c>
+      <c r="J118" t="n">
+        <v>471.3933000000002</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4007.1846</v>
+        <v>10674.3722</v>
       </c>
       <c r="C119" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="D119" t="n">
-        <v>35602.2894</v>
+        <v>45089.7741</v>
       </c>
       <c r="E119" t="n">
-        <v>34.7</v>
+        <v>31.3</v>
       </c>
       <c r="F119" t="n">
-        <v>1308.624</v>
+        <v>2871.1398</v>
       </c>
       <c r="G119" t="n">
-        <v>10.7</v>
+        <v>12.5</v>
+      </c>
+      <c r="H119" t="n">
+        <v>2477.124400000001</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3171.538500000002</v>
+      </c>
+      <c r="J119" t="n">
+        <v>628.1315999999997</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>5912.984</v>
+        <v>12475.4114</v>
       </c>
       <c r="C120" t="n">
-        <v>20.5</v>
+        <v>24.5</v>
       </c>
       <c r="D120" t="n">
-        <v>38639.6639</v>
+        <v>47188.3121</v>
       </c>
       <c r="E120" t="n">
-        <v>32.3</v>
+        <v>30.9</v>
       </c>
       <c r="F120" t="n">
-        <v>1771.6149</v>
+        <v>3359.2235</v>
       </c>
       <c r="G120" t="n">
-        <v>7.9</v>
+        <v>13.4</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1801.039200000001</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2098.538</v>
+      </c>
+      <c r="J120" t="n">
+        <v>488.0837000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>8197.247799999999</v>
+        <v>14287.6671</v>
       </c>
       <c r="C121" t="n">
-        <v>20.8</v>
+        <v>25.9</v>
       </c>
       <c r="D121" t="n">
-        <v>41918.2356</v>
+        <v>49322.962</v>
       </c>
       <c r="E121" t="n">
-        <v>32.3</v>
+        <v>31.1</v>
       </c>
       <c r="F121" t="n">
-        <v>2243.0082</v>
+        <v>3889.6333</v>
       </c>
       <c r="G121" t="n">
-        <v>7.3</v>
+        <v>15.3</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1812.2557</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2134.649899999997</v>
+      </c>
+      <c r="J121" t="n">
+        <v>530.4097999999999</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>10674.3722</v>
+        <v>15887.9294</v>
       </c>
       <c r="C122" t="n">
-        <v>19.5</v>
+        <v>22.4</v>
       </c>
       <c r="D122" t="n">
-        <v>45089.7741</v>
+        <v>51224.9832</v>
       </c>
       <c r="E122" t="n">
-        <v>31.3</v>
+        <v>29.9</v>
       </c>
       <c r="F122" t="n">
-        <v>2871.1398</v>
+        <v>4550.4731</v>
       </c>
       <c r="G122" t="n">
-        <v>12.5</v>
+        <v>17.7</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1600.2623</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1902.021200000003</v>
+      </c>
+      <c r="J122" t="n">
+        <v>660.8398000000002</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>12475.4114</v>
+        <v>17275.3155</v>
       </c>
       <c r="C123" t="n">
-        <v>24.5</v>
+        <v>21.4</v>
       </c>
       <c r="D123" t="n">
-        <v>47188.3121</v>
+        <v>52841.4984</v>
       </c>
       <c r="E123" t="n">
-        <v>30.9</v>
+        <v>28.9</v>
       </c>
       <c r="F123" t="n">
-        <v>3359.2235</v>
+        <v>5207.7204</v>
       </c>
       <c r="G123" t="n">
-        <v>13.4</v>
+        <v>18.3</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1387.3861</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1616.515199999994</v>
+      </c>
+      <c r="J123" t="n">
+        <v>657.2473</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>14287.6671</v>
+        <v>18999.2778</v>
       </c>
       <c r="C124" t="n">
-        <v>25.9</v>
+        <v>21.7</v>
       </c>
       <c r="D124" t="n">
-        <v>49322.962</v>
+        <v>54657.777</v>
       </c>
       <c r="E124" t="n">
-        <v>31.1</v>
+        <v>28.9</v>
       </c>
       <c r="F124" t="n">
-        <v>3889.6333</v>
+        <v>6157.1478</v>
       </c>
       <c r="G124" t="n">
-        <v>15.3</v>
+        <v>21.5</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1723.962299999999</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1816.278600000005</v>
+      </c>
+      <c r="J124" t="n">
+        <v>949.4273999999996</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>15887.9294</v>
+        <v>20670.723</v>
       </c>
       <c r="C125" t="n">
-        <v>22.4</v>
+        <v>18.3</v>
       </c>
       <c r="D125" t="n">
-        <v>51224.9832</v>
+        <v>56278.1825</v>
       </c>
       <c r="E125" t="n">
-        <v>29.9</v>
+        <v>26.1</v>
       </c>
       <c r="F125" t="n">
-        <v>4550.4731</v>
+        <v>9045.270699999999</v>
       </c>
       <c r="G125" t="n">
-        <v>17.7</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1671.445200000002</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1620.405500000001</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2888.122899999999</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>18316.0866</v>
+        <v>2594.1438</v>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>32.4</v>
       </c>
       <c r="D126" t="n">
-        <v>61531.3188</v>
+        <v>44281.9111</v>
       </c>
       <c r="E126" t="n">
-        <v>16.4</v>
+        <v>39.3</v>
       </c>
       <c r="F126" t="n">
-        <v>6101.5417</v>
+        <v>1185.3065</v>
       </c>
       <c r="G126" t="n">
-        <v>17.2</v>
+        <v>47.9</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2594.1438</v>
+      </c>
+      <c r="I126" t="n">
+        <v>44281.9111</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1185.3065</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>20200.1735</v>
+        <v>5047.3694</v>
       </c>
       <c r="C127" t="n">
-        <v>6.3</v>
+        <v>26</v>
       </c>
       <c r="D127" t="n">
-        <v>63828.9004</v>
+        <v>45707.1073</v>
       </c>
       <c r="E127" t="n">
-        <v>16.8</v>
+        <v>28.4</v>
       </c>
       <c r="F127" t="n">
-        <v>7043.4975</v>
+        <v>1919.4114</v>
       </c>
       <c r="G127" t="n">
-        <v>14.4</v>
+        <v>46.7</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2453.2256</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1425.196200000006</v>
+      </c>
+      <c r="J127" t="n">
+        <v>734.1049</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>22006.8509</v>
+        <v>6598.1086</v>
       </c>
       <c r="C128" t="n">
-        <v>6.2</v>
+        <v>11.6</v>
       </c>
       <c r="D128" t="n">
-        <v>65813.9053</v>
+        <v>47779.0231</v>
       </c>
       <c r="E128" t="n">
-        <v>17.6</v>
+        <v>23.7</v>
       </c>
       <c r="F128" t="n">
-        <v>10226.4506</v>
+        <v>2392.2971</v>
       </c>
       <c r="G128" t="n">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1550.7392</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2071.915799999995</v>
+      </c>
+      <c r="J128" t="n">
+        <v>472.8856999999998</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2594.1438</v>
+        <v>8989.283299999999</v>
       </c>
       <c r="C129" t="n">
-        <v>32.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>44281.9111</v>
+        <v>50788.1434</v>
       </c>
       <c r="E129" t="n">
-        <v>39.3</v>
+        <v>21.2</v>
       </c>
       <c r="F129" t="n">
-        <v>1185.3065</v>
+        <v>2930.6114</v>
       </c>
       <c r="G129" t="n">
-        <v>47.9</v>
+        <v>30.7</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2391.1747</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3009.120300000002</v>
+      </c>
+      <c r="J129" t="n">
+        <v>538.3143</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>5047.3694</v>
+        <v>11372.7586</v>
       </c>
       <c r="C130" t="n">
-        <v>26</v>
+        <v>6.5</v>
       </c>
       <c r="D130" t="n">
-        <v>45707.1073</v>
+        <v>53576.5149</v>
       </c>
       <c r="E130" t="n">
-        <v>28.4</v>
+        <v>18.8</v>
       </c>
       <c r="F130" t="n">
-        <v>1919.4114</v>
+        <v>3549.2025</v>
       </c>
       <c r="G130" t="n">
-        <v>46.7</v>
+        <v>23.6</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2383.4753</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2788.371500000001</v>
+      </c>
+      <c r="J130" t="n">
+        <v>618.5911000000001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>6598.1086</v>
+        <v>12712.5016</v>
       </c>
       <c r="C131" t="n">
-        <v>11.6</v>
+        <v>1.9</v>
       </c>
       <c r="D131" t="n">
-        <v>47779.0231</v>
+        <v>55223.0089</v>
       </c>
       <c r="E131" t="n">
-        <v>23.7</v>
+        <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>2392.2971</v>
+        <v>4091.2785</v>
       </c>
       <c r="G131" t="n">
-        <v>35</v>
+        <v>21.8</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1339.743</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1646.493999999999</v>
+      </c>
+      <c r="J131" t="n">
+        <v>542.076</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>8989.283299999999</v>
+        <v>15375.9609</v>
       </c>
       <c r="C132" t="n">
-        <v>9.699999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="D132" t="n">
-        <v>50788.1434</v>
+        <v>58266.3595</v>
       </c>
       <c r="E132" t="n">
-        <v>21.2</v>
+        <v>18.1</v>
       </c>
       <c r="F132" t="n">
-        <v>2930.6114</v>
+        <v>4707.5932</v>
       </c>
       <c r="G132" t="n">
-        <v>30.7</v>
+        <v>21</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2663.4593</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3043.350599999998</v>
+      </c>
+      <c r="J132" t="n">
+        <v>616.3147000000004</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>11372.7586</v>
+        <v>16893.7335</v>
       </c>
       <c r="C133" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="D133" t="n">
-        <v>53576.5149</v>
+        <v>59969.0945</v>
       </c>
       <c r="E133" t="n">
-        <v>18.8</v>
+        <v>17.1</v>
       </c>
       <c r="F133" t="n">
-        <v>3549.2025</v>
+        <v>5314.7946</v>
       </c>
       <c r="G133" t="n">
-        <v>23.6</v>
+        <v>16.8</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1517.772599999998</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1702.735000000001</v>
+      </c>
+      <c r="J133" t="n">
+        <v>607.2013999999999</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>12712.5016</v>
+        <v>18316.0866</v>
       </c>
       <c r="C134" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>55223.0089</v>
+        <v>61531.3188</v>
       </c>
       <c r="E134" t="n">
-        <v>17</v>
+        <v>16.4</v>
       </c>
       <c r="F134" t="n">
-        <v>4091.2785</v>
+        <v>6101.5417</v>
       </c>
       <c r="G134" t="n">
-        <v>21.8</v>
+        <v>17.2</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1422.3531</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1562.224300000002</v>
+      </c>
+      <c r="J134" t="n">
+        <v>786.7470999999996</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>15375.9609</v>
+        <v>20200.1735</v>
       </c>
       <c r="C135" t="n">
-        <v>7.6</v>
+        <v>6.3</v>
       </c>
       <c r="D135" t="n">
-        <v>58266.3595</v>
+        <v>63828.9004</v>
       </c>
       <c r="E135" t="n">
-        <v>18.1</v>
+        <v>16.8</v>
       </c>
       <c r="F135" t="n">
-        <v>4707.5932</v>
+        <v>7043.4975</v>
       </c>
       <c r="G135" t="n">
-        <v>21</v>
+        <v>14.4</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1884.086900000002</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2297.581599999998</v>
+      </c>
+      <c r="J135" t="n">
+        <v>941.9558000000006</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>16893.7335</v>
+        <v>22006.8509</v>
       </c>
       <c r="C136" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="D136" t="n">
-        <v>59969.0945</v>
+        <v>65813.9053</v>
       </c>
       <c r="E136" t="n">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="F136" t="n">
-        <v>5314.7946</v>
+        <v>10226.4506</v>
       </c>
       <c r="G136" t="n">
-        <v>16.8</v>
+        <v>8</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1806.6774</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1985.0049</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3182.9531</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>19853.0375</v>
+        <v>2551.5794</v>
       </c>
       <c r="C137" t="n">
-        <v>8.4</v>
+        <v>-1.6</v>
       </c>
       <c r="D137" t="n">
-        <v>73902.97040000001</v>
+        <v>52814.3187</v>
       </c>
       <c r="E137" t="n">
-        <v>20.1</v>
+        <v>19.3</v>
       </c>
       <c r="F137" t="n">
-        <v>6520.2436</v>
+        <v>1630.4225</v>
       </c>
       <c r="G137" t="n">
-        <v>6.9</v>
+        <v>37.6</v>
+      </c>
+      <c r="H137" t="n">
+        <v>2551.5794</v>
+      </c>
+      <c r="I137" t="n">
+        <v>52814.3187</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1630.4225</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>23252.3308</v>
+        <v>4340.7989</v>
       </c>
       <c r="C138" t="n">
-        <v>15.1</v>
+        <v>-14</v>
       </c>
       <c r="D138" t="n">
-        <v>78081.827</v>
+        <v>55618.5598</v>
       </c>
       <c r="E138" t="n">
-        <v>22.3</v>
+        <v>21.7</v>
       </c>
       <c r="F138" t="n">
-        <v>7563.8837</v>
+        <v>2304.7198</v>
       </c>
       <c r="G138" t="n">
-        <v>7.4</v>
+        <v>20.1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1789.2195</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2804.241099999999</v>
+      </c>
+      <c r="J138" t="n">
+        <v>674.2973</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>25902.0016</v>
+        <v>6383.4466</v>
       </c>
       <c r="C139" t="n">
-        <v>17.7</v>
+        <v>-3.3</v>
       </c>
       <c r="D139" t="n">
-        <v>80626.75509999999</v>
+        <v>58320.9769</v>
       </c>
       <c r="E139" t="n">
-        <v>22.5</v>
+        <v>22.1</v>
       </c>
       <c r="F139" t="n">
-        <v>10852.4151</v>
+        <v>2829.3421</v>
       </c>
       <c r="G139" t="n">
-        <v>6.1</v>
+        <v>18.3</v>
+      </c>
+      <c r="H139" t="n">
+        <v>2042.6477</v>
+      </c>
+      <c r="I139" t="n">
+        <v>2702.417099999999</v>
+      </c>
+      <c r="J139" t="n">
+        <v>524.6223</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2551.5794</v>
+        <v>8859.7137</v>
       </c>
       <c r="C140" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="D140" t="n">
-        <v>52814.3187</v>
+        <v>61826.4207</v>
       </c>
       <c r="E140" t="n">
-        <v>19.3</v>
+        <v>21.7</v>
       </c>
       <c r="F140" t="n">
-        <v>1630.4225</v>
+        <v>3430.9833</v>
       </c>
       <c r="G140" t="n">
-        <v>37.6</v>
+        <v>17.1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>2476.2671</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3505.443800000001</v>
+      </c>
+      <c r="J140" t="n">
+        <v>601.6412</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4340.7989</v>
+        <v>11778.3966</v>
       </c>
       <c r="C141" t="n">
-        <v>-14</v>
+        <v>3.6</v>
       </c>
       <c r="D141" t="n">
-        <v>55618.5598</v>
+        <v>65343.7491</v>
       </c>
       <c r="E141" t="n">
-        <v>21.7</v>
+        <v>22</v>
       </c>
       <c r="F141" t="n">
-        <v>2304.7198</v>
+        <v>4062.2769</v>
       </c>
       <c r="G141" t="n">
-        <v>20.1</v>
+        <v>14.5</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2918.6829</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3517.328399999999</v>
+      </c>
+      <c r="J141" t="n">
+        <v>631.2936</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>6383.4466</v>
+        <v>13974.3703</v>
       </c>
       <c r="C142" t="n">
-        <v>-3.3</v>
+        <v>9.9</v>
       </c>
       <c r="D142" t="n">
-        <v>58320.9769</v>
+        <v>67755.1977</v>
       </c>
       <c r="E142" t="n">
-        <v>22.1</v>
+        <v>22.7</v>
       </c>
       <c r="F142" t="n">
-        <v>2829.3421</v>
+        <v>4630.1335</v>
       </c>
       <c r="G142" t="n">
-        <v>18.3</v>
+        <v>13.2</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2195.9737</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2411.448600000003</v>
+      </c>
+      <c r="J142" t="n">
+        <v>567.8566000000001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>8859.7137</v>
+        <v>15891.8825</v>
       </c>
       <c r="C143" t="n">
-        <v>-1.4</v>
+        <v>3.4</v>
       </c>
       <c r="D143" t="n">
-        <v>61826.4207</v>
+        <v>69517.94100000001</v>
       </c>
       <c r="E143" t="n">
-        <v>21.7</v>
+        <v>19.3</v>
       </c>
       <c r="F143" t="n">
-        <v>3430.9833</v>
+        <v>5142.9978</v>
       </c>
       <c r="G143" t="n">
-        <v>17.1</v>
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1917.512199999999</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1762.743300000002</v>
+      </c>
+      <c r="J143" t="n">
+        <v>512.8643000000002</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>11778.3966</v>
+        <v>18255.5388</v>
       </c>
       <c r="C144" t="n">
-        <v>3.6</v>
+        <v>8.1</v>
       </c>
       <c r="D144" t="n">
-        <v>65343.7491</v>
+        <v>72147.3973</v>
       </c>
       <c r="E144" t="n">
-        <v>22</v>
+        <v>20.3</v>
       </c>
       <c r="F144" t="n">
-        <v>4062.2769</v>
+        <v>5711.6959</v>
       </c>
       <c r="G144" t="n">
-        <v>14.5</v>
+        <v>7.5</v>
+      </c>
+      <c r="H144" t="n">
+        <v>2363.656299999999</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2629.456299999991</v>
+      </c>
+      <c r="J144" t="n">
+        <v>568.6980999999996</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>13974.3703</v>
+        <v>19853.0375</v>
       </c>
       <c r="C145" t="n">
-        <v>9.9</v>
+        <v>8.4</v>
       </c>
       <c r="D145" t="n">
-        <v>67755.1977</v>
+        <v>73902.97040000001</v>
       </c>
       <c r="E145" t="n">
-        <v>22.7</v>
+        <v>20.1</v>
       </c>
       <c r="F145" t="n">
-        <v>4630.1335</v>
+        <v>6520.2436</v>
       </c>
       <c r="G145" t="n">
-        <v>13.2</v>
+        <v>6.9</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1597.4987</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1755.573100000009</v>
+      </c>
+      <c r="J145" t="n">
+        <v>808.5477000000001</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>15891.8825</v>
+        <v>23252.3308</v>
       </c>
       <c r="C146" t="n">
-        <v>3.4</v>
+        <v>15.1</v>
       </c>
       <c r="D146" t="n">
-        <v>69517.94100000001</v>
+        <v>78081.827</v>
       </c>
       <c r="E146" t="n">
-        <v>19.3</v>
+        <v>22.3</v>
       </c>
       <c r="F146" t="n">
-        <v>5142.9978</v>
+        <v>7563.8837</v>
       </c>
       <c r="G146" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3399.293300000001</v>
+      </c>
+      <c r="I146" t="n">
+        <v>4178.856599999999</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1043.640100000001</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>18255.5388</v>
+        <v>25902.0016</v>
       </c>
       <c r="C147" t="n">
-        <v>8.1</v>
+        <v>17.7</v>
       </c>
       <c r="D147" t="n">
-        <v>72147.3973</v>
+        <v>80626.75509999999</v>
       </c>
       <c r="E147" t="n">
-        <v>20.3</v>
+        <v>22.5</v>
       </c>
       <c r="F147" t="n">
-        <v>5711.6959</v>
+        <v>10852.4151</v>
       </c>
       <c r="G147" t="n">
-        <v>7.5</v>
+        <v>6.1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2649.6708</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2544.92809999999</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3288.5314</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>20730.6194</v>
+        <v>2164.0803</v>
       </c>
       <c r="C148" t="n">
-        <v>4.4</v>
+        <v>-15.2</v>
       </c>
       <c r="D148" t="n">
-        <v>89556.5484</v>
+        <v>66048.72319999999</v>
       </c>
       <c r="E148" t="n">
-        <v>21.2</v>
+        <v>25.1</v>
       </c>
       <c r="F148" t="n">
-        <v>7300.5261</v>
+        <v>1501.8274</v>
       </c>
       <c r="G148" t="n">
-        <v>12</v>
+        <v>-7.9</v>
+      </c>
+      <c r="H148" t="n">
+        <v>2164.0803</v>
+      </c>
+      <c r="I148" t="n">
+        <v>66048.72319999999</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1501.8274</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>23026.8</v>
+        <v>3641.7225</v>
       </c>
       <c r="C149" t="n">
-        <v>-1</v>
+        <v>-16.1</v>
       </c>
       <c r="D149" t="n">
-        <v>92268.859</v>
+        <v>68170.9584</v>
       </c>
       <c r="E149" t="n">
-        <v>18.2</v>
+        <v>22.6</v>
       </c>
       <c r="F149" t="n">
-        <v>8451.6875</v>
+        <v>2223.9308</v>
       </c>
       <c r="G149" t="n">
-        <v>11.7</v>
+        <v>-3.5</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1477.6422</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2122.23520000001</v>
+      </c>
+      <c r="J149" t="n">
+        <v>722.1034000000002</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>25047.7269</v>
+        <v>5503.3149</v>
       </c>
       <c r="C150" t="n">
-        <v>-3.3</v>
+        <v>-13.8</v>
       </c>
       <c r="D150" t="n">
-        <v>94320.05</v>
+        <v>70649.5897</v>
       </c>
       <c r="E150" t="n">
-        <v>17</v>
+        <v>21.1</v>
       </c>
       <c r="F150" t="n">
-        <v>12084.0762</v>
+        <v>2751.3032</v>
       </c>
       <c r="G150" t="n">
-        <v>11.3</v>
+        <v>-2.8</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1861.5924</v>
+      </c>
+      <c r="I150" t="n">
+        <v>2478.631299999994</v>
+      </c>
+      <c r="J150" t="n">
+        <v>527.3723999999997</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2164.0803</v>
+        <v>7864.095</v>
       </c>
       <c r="C151" t="n">
-        <v>-15.2</v>
+        <v>-11.2</v>
       </c>
       <c r="D151" t="n">
-        <v>66048.72319999999</v>
+        <v>73697.64690000001</v>
       </c>
       <c r="E151" t="n">
-        <v>25.1</v>
+        <v>19.2</v>
       </c>
       <c r="F151" t="n">
-        <v>1501.8274</v>
+        <v>3502.1164</v>
       </c>
       <c r="G151" t="n">
-        <v>-7.9</v>
+        <v>2.1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>2360.7801</v>
+      </c>
+      <c r="I151" t="n">
+        <v>3048.05720000001</v>
+      </c>
+      <c r="J151" t="n">
+        <v>750.8132000000001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>3641.7225</v>
+        <v>10731.5001</v>
       </c>
       <c r="C152" t="n">
-        <v>-16.1</v>
+        <v>-8.9</v>
       </c>
       <c r="D152" t="n">
-        <v>68170.9584</v>
+        <v>77444.8983</v>
       </c>
       <c r="E152" t="n">
-        <v>22.6</v>
+        <v>18.5</v>
       </c>
       <c r="F152" t="n">
-        <v>2223.9308</v>
+        <v>4353.3618</v>
       </c>
       <c r="G152" t="n">
-        <v>-3.5</v>
+        <v>7.2</v>
+      </c>
+      <c r="H152" t="n">
+        <v>2867.405099999999</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3747.251399999994</v>
+      </c>
+      <c r="J152" t="n">
+        <v>851.2453999999998</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>5503.3149</v>
+        <v>13316.8442</v>
       </c>
       <c r="C153" t="n">
-        <v>-13.8</v>
+        <v>-4.7</v>
       </c>
       <c r="D153" t="n">
-        <v>70649.5897</v>
+        <v>80515.2211</v>
       </c>
       <c r="E153" t="n">
-        <v>21.1</v>
+        <v>18.8</v>
       </c>
       <c r="F153" t="n">
-        <v>2751.3032</v>
+        <v>4929.3744</v>
       </c>
       <c r="G153" t="n">
-        <v>-2.8</v>
+        <v>6.5</v>
+      </c>
+      <c r="H153" t="n">
+        <v>2585.3441</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3070.322799999994</v>
+      </c>
+      <c r="J153" t="n">
+        <v>576.0126</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>7864.095</v>
+        <v>15813.7861</v>
       </c>
       <c r="C154" t="n">
-        <v>-11.2</v>
+        <v>-0.5</v>
       </c>
       <c r="D154" t="n">
-        <v>73697.64690000001</v>
+        <v>83767.65459999999</v>
       </c>
       <c r="E154" t="n">
-        <v>19.2</v>
+        <v>20.5</v>
       </c>
       <c r="F154" t="n">
-        <v>3502.1164</v>
+        <v>5658.6429</v>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>10</v>
+      </c>
+      <c r="H154" t="n">
+        <v>2496.9419</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3252.433499999999</v>
+      </c>
+      <c r="J154" t="n">
+        <v>729.2685000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>10731.5001</v>
+        <v>18263.2154</v>
       </c>
       <c r="C155" t="n">
-        <v>-8.9</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>77444.8983</v>
+        <v>86673.00109999999</v>
       </c>
       <c r="E155" t="n">
-        <v>18.5</v>
+        <v>20.1</v>
       </c>
       <c r="F155" t="n">
-        <v>4353.3618</v>
+        <v>6407.8117</v>
       </c>
       <c r="G155" t="n">
-        <v>7.2</v>
+        <v>12.2</v>
+      </c>
+      <c r="H155" t="n">
+        <v>2449.429300000002</v>
+      </c>
+      <c r="I155" t="n">
+        <v>2905.3465</v>
+      </c>
+      <c r="J155" t="n">
+        <v>749.1688000000004</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>13316.8442</v>
+        <v>20730.6194</v>
       </c>
       <c r="C156" t="n">
-        <v>-4.7</v>
+        <v>4.4</v>
       </c>
       <c r="D156" t="n">
-        <v>80515.2211</v>
+        <v>89556.5484</v>
       </c>
       <c r="E156" t="n">
-        <v>18.8</v>
+        <v>21.2</v>
       </c>
       <c r="F156" t="n">
-        <v>4929.3744</v>
+        <v>7300.5261</v>
       </c>
       <c r="G156" t="n">
-        <v>6.5</v>
+        <v>12</v>
+      </c>
+      <c r="H156" t="n">
+        <v>2467.403999999999</v>
+      </c>
+      <c r="I156" t="n">
+        <v>2883.547300000006</v>
+      </c>
+      <c r="J156" t="n">
+        <v>892.7143999999998</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>15813.7861</v>
+        <v>23026.8</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="D157" t="n">
-        <v>83767.65459999999</v>
+        <v>92268.859</v>
       </c>
       <c r="E157" t="n">
-        <v>20.5</v>
+        <v>18.2</v>
       </c>
       <c r="F157" t="n">
-        <v>5658.6429</v>
+        <v>8451.6875</v>
       </c>
       <c r="G157" t="n">
-        <v>10</v>
+        <v>11.7</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2296.1806</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2712.310599999997</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1151.1614</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>18263.2154</v>
+        <v>25047.7269</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
       <c r="D158" t="n">
-        <v>86673.00109999999</v>
+        <v>94320.05</v>
       </c>
       <c r="E158" t="n">
-        <v>20.1</v>
+        <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>6407.8117</v>
+        <v>12084.0762</v>
       </c>
       <c r="G158" t="n">
-        <v>12.2</v>
+        <v>11.3</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2020.926900000002</v>
+      </c>
+      <c r="I158" t="n">
+        <v>2051.191000000006</v>
+      </c>
+      <c r="J158" t="n">
+        <v>3632.3887</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>18832.3518</v>
+        <v>1868.8628</v>
       </c>
       <c r="C159" t="n">
-        <v>-9.199999999999999</v>
+        <v>-13.6</v>
       </c>
       <c r="D159" t="n">
-        <v>96300.7023</v>
+        <v>76121.1299</v>
       </c>
       <c r="E159" t="n">
-        <v>7.5</v>
+        <v>15.2</v>
       </c>
       <c r="F159" t="n">
-        <v>7499.2299</v>
+        <v>1305.4029</v>
       </c>
       <c r="G159" t="n">
-        <v>2.7</v>
+        <v>-13.1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1868.8628</v>
+      </c>
+      <c r="I159" t="n">
+        <v>76121.1299</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1305.4029</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>20700.1537</v>
+        <v>3327.0434</v>
       </c>
       <c r="C160" t="n">
-        <v>-10.1</v>
+        <v>-8.6</v>
       </c>
       <c r="D160" t="n">
-        <v>98783.28939999999</v>
+        <v>77893.0744</v>
       </c>
       <c r="E160" t="n">
-        <v>7.1</v>
+        <v>14.3</v>
       </c>
       <c r="F160" t="n">
-        <v>8945.621999999999</v>
+        <v>2048.3189</v>
       </c>
       <c r="G160" t="n">
-        <v>5.8</v>
+        <v>-7.9</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1458.1806</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1771.944499999998</v>
+      </c>
+      <c r="J160" t="n">
+        <v>742.9160000000002</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>22530.2918</v>
+        <v>5144.5659</v>
       </c>
       <c r="C161" t="n">
-        <v>-10.1</v>
+        <v>-6.5</v>
       </c>
       <c r="D161" t="n">
-        <v>100111.3784</v>
+        <v>80257.71030000001</v>
       </c>
       <c r="E161" t="n">
-        <v>6.1</v>
+        <v>13.6</v>
       </c>
       <c r="F161" t="n">
-        <v>12026.6673</v>
+        <v>2576.1973</v>
       </c>
       <c r="G161" t="n">
-        <v>-0.5</v>
+        <v>-6.4</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1817.5225</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2364.635900000008</v>
+      </c>
+      <c r="J161" t="n">
+        <v>527.8783999999996</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1868.8628</v>
+        <v>7299.7226</v>
       </c>
       <c r="C162" t="n">
-        <v>-13.6</v>
+        <v>-7.2</v>
       </c>
       <c r="D162" t="n">
-        <v>76121.1299</v>
+        <v>82766.7003</v>
       </c>
       <c r="E162" t="n">
-        <v>15.2</v>
+        <v>12.3</v>
       </c>
       <c r="F162" t="n">
-        <v>1305.4029</v>
+        <v>3216.7996</v>
       </c>
       <c r="G162" t="n">
-        <v>-13.1</v>
+        <v>-8.1</v>
+      </c>
+      <c r="H162" t="n">
+        <v>2155.1567</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2508.989999999991</v>
+      </c>
+      <c r="J162" t="n">
+        <v>640.6023</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3327.0434</v>
+        <v>9967.0399</v>
       </c>
       <c r="C163" t="n">
-        <v>-8.6</v>
+        <v>-7.1</v>
       </c>
       <c r="D163" t="n">
-        <v>77893.0744</v>
+        <v>85952.3124</v>
       </c>
       <c r="E163" t="n">
-        <v>14.3</v>
+        <v>11</v>
       </c>
       <c r="F163" t="n">
-        <v>2048.3189</v>
+        <v>3967.3163</v>
       </c>
       <c r="G163" t="n">
-        <v>-7.9</v>
+        <v>-8.9</v>
+      </c>
+      <c r="H163" t="n">
+        <v>2667.3173</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3185.612099999998</v>
+      </c>
+      <c r="J163" t="n">
+        <v>750.5167000000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>5144.5659</v>
+        <v>12075.6788</v>
       </c>
       <c r="C164" t="n">
-        <v>-6.5</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>80257.71030000001</v>
+        <v>88273.4561</v>
       </c>
       <c r="E164" t="n">
-        <v>13.6</v>
+        <v>9.6</v>
       </c>
       <c r="F164" t="n">
-        <v>2576.1973</v>
+        <v>4525.9374</v>
       </c>
       <c r="G164" t="n">
-        <v>-6.4</v>
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="H164" t="n">
+        <v>2108.6389</v>
+      </c>
+      <c r="I164" t="n">
+        <v>2321.143700000001</v>
+      </c>
+      <c r="J164" t="n">
+        <v>558.6210999999998</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>7299.7226</v>
+        <v>14101.8847</v>
       </c>
       <c r="C165" t="n">
-        <v>-7.2</v>
+        <v>-10.8</v>
       </c>
       <c r="D165" t="n">
-        <v>82766.7003</v>
+        <v>90445.3507</v>
       </c>
       <c r="E165" t="n">
-        <v>12.3</v>
+        <v>8</v>
       </c>
       <c r="F165" t="n">
-        <v>3216.7996</v>
+        <v>5088.033</v>
       </c>
       <c r="G165" t="n">
-        <v>-8.1</v>
+        <v>-10.1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>2026.205900000001</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2171.8946</v>
+      </c>
+      <c r="J165" t="n">
+        <v>562.0956000000006</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>9967.0399</v>
+        <v>17061.459</v>
       </c>
       <c r="C166" t="n">
-        <v>-7.1</v>
+        <v>-6.6</v>
       </c>
       <c r="D166" t="n">
-        <v>85952.3124</v>
+        <v>94164.83010000001</v>
       </c>
       <c r="E166" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="F166" t="n">
-        <v>3967.3163</v>
+        <v>6228.7495</v>
       </c>
       <c r="G166" t="n">
-        <v>-8.9</v>
+        <v>-2.8</v>
+      </c>
+      <c r="H166" t="n">
+        <v>2959.574299999998</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3719.479400000011</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1140.7165</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>12075.6788</v>
+        <v>18832.3518</v>
       </c>
       <c r="C167" t="n">
-        <v>-9.300000000000001</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="D167" t="n">
-        <v>88273.4561</v>
+        <v>96300.7023</v>
       </c>
       <c r="E167" t="n">
-        <v>9.6</v>
+        <v>7.5</v>
       </c>
       <c r="F167" t="n">
-        <v>4525.9374</v>
+        <v>7499.2299</v>
       </c>
       <c r="G167" t="n">
-        <v>-8.199999999999999</v>
+        <v>2.7</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1770.892800000001</v>
+      </c>
+      <c r="I167" t="n">
+        <v>2135.872199999998</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1270.4804</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>14101.8847</v>
+        <v>20700.1537</v>
       </c>
       <c r="C168" t="n">
-        <v>-10.8</v>
+        <v>-10.1</v>
       </c>
       <c r="D168" t="n">
-        <v>90445.3507</v>
+        <v>98783.28939999999</v>
       </c>
       <c r="E168" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="F168" t="n">
-        <v>5088.033</v>
+        <v>8945.621999999999</v>
       </c>
       <c r="G168" t="n">
-        <v>-10.1</v>
+        <v>5.8</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1867.801899999999</v>
+      </c>
+      <c r="I168" t="n">
+        <v>2482.58709999999</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1446.392099999999</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>17061.459</v>
+        <v>22530.2918</v>
       </c>
       <c r="C169" t="n">
-        <v>-6.6</v>
+        <v>-10.1</v>
       </c>
       <c r="D169" t="n">
-        <v>94164.83010000001</v>
+        <v>100111.3784</v>
       </c>
       <c r="E169" t="n">
-        <v>8.6</v>
+        <v>6.1</v>
       </c>
       <c r="F169" t="n">
-        <v>6228.7495</v>
+        <v>12026.6673</v>
       </c>
       <c r="G169" t="n">
-        <v>-2.8</v>
+        <v>-0.5</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1830.1381</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1328.089000000007</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3081.0453</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>18661.5243</v>
+        <v>2052.0633</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>101281.2214</v>
+        <v>83631.52800000001</v>
       </c>
       <c r="E170" t="n">
-        <v>5.2</v>
+        <v>9.9</v>
       </c>
       <c r="F170" t="n">
-        <v>7841.5518</v>
+        <v>1588.4242</v>
       </c>
       <c r="G170" t="n">
-        <v>4.6</v>
+        <v>21.7</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2052.0633</v>
+      </c>
+      <c r="I170" t="n">
+        <v>83631.52800000001</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1588.4242</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>20398.5157</v>
+        <v>3742.5952</v>
       </c>
       <c r="C171" t="n">
-        <v>-1.5</v>
+        <v>12.5</v>
       </c>
       <c r="D171" t="n">
-        <v>103030.8214</v>
+        <v>85649.0802</v>
       </c>
       <c r="E171" t="n">
-        <v>4.3</v>
+        <v>10</v>
       </c>
       <c r="F171" t="n">
-        <v>9314.959999999999</v>
+        <v>2350.9136</v>
       </c>
       <c r="G171" t="n">
-        <v>4.1</v>
+        <v>14.8</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1690.5319</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2017.552199999991</v>
+      </c>
+      <c r="J171" t="n">
+        <v>762.4893999999999</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>22317</v>
+        <v>5882.1143</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.9</v>
+        <v>14.3</v>
       </c>
       <c r="D172" t="n">
-        <v>104572</v>
+        <v>88140.9783</v>
       </c>
       <c r="E172" t="n">
-        <v>4.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F172" t="n">
-        <v>12518</v>
+        <v>3008.6393</v>
       </c>
       <c r="G172" t="n">
-        <v>4.1</v>
+        <v>16.8</v>
+      </c>
+      <c r="H172" t="n">
+        <v>2139.5191</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2491.898100000006</v>
+      </c>
+      <c r="J172" t="n">
+        <v>657.7257</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>2052.0633</v>
+        <v>8191.1153</v>
       </c>
       <c r="C173" t="n">
-        <v>9.800000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="D173" t="n">
-        <v>83631.52800000001</v>
+        <v>90625.0747</v>
       </c>
       <c r="E173" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="F173" t="n">
-        <v>1588.4242</v>
+        <v>3816.883</v>
       </c>
       <c r="G173" t="n">
-        <v>21.7</v>
+        <v>18.7</v>
+      </c>
+      <c r="H173" t="n">
+        <v>2309.001</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2484.096399999995</v>
+      </c>
+      <c r="J173" t="n">
+        <v>808.2437</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>3742.5952</v>
+        <v>10541.9311</v>
       </c>
       <c r="C174" t="n">
-        <v>12.5</v>
+        <v>5.8</v>
       </c>
       <c r="D174" t="n">
-        <v>85649.0802</v>
+        <v>92994.0505</v>
       </c>
       <c r="E174" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F174" t="n">
-        <v>2350.9136</v>
+        <v>4805.0095</v>
       </c>
       <c r="G174" t="n">
-        <v>14.8</v>
+        <v>21.1</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2350.815799999999</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2368.9758</v>
+      </c>
+      <c r="J174" t="n">
+        <v>988.1265000000003</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>5882.1143</v>
+        <v>12572.8074</v>
       </c>
       <c r="C175" t="n">
-        <v>14.3</v>
+        <v>4.1</v>
       </c>
       <c r="D175" t="n">
-        <v>88140.9783</v>
+        <v>95075.3458</v>
       </c>
       <c r="E175" t="n">
-        <v>9.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="F175" t="n">
-        <v>3008.6393</v>
+        <v>5518.4609</v>
       </c>
       <c r="G175" t="n">
-        <v>16.8</v>
+        <v>21.9</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2030.8763</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2081.295299999998</v>
+      </c>
+      <c r="J175" t="n">
+        <v>713.4513999999999</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>8191.1153</v>
+        <v>14651.9359</v>
       </c>
       <c r="C176" t="n">
-        <v>12.2</v>
+        <v>3.9</v>
       </c>
       <c r="D176" t="n">
-        <v>90625.0747</v>
+        <v>97169.43459999999</v>
       </c>
       <c r="E176" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="F176" t="n">
-        <v>3816.883</v>
+        <v>6082.3794</v>
       </c>
       <c r="G176" t="n">
-        <v>18.7</v>
+        <v>19.5</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2079.128500000001</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2094.088799999998</v>
+      </c>
+      <c r="J176" t="n">
+        <v>563.9184999999998</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>10541.9311</v>
+        <v>16674.8549</v>
       </c>
       <c r="C177" t="n">
-        <v>5.8</v>
+        <v>-2.3</v>
       </c>
       <c r="D177" t="n">
-        <v>92994.0505</v>
+        <v>99287.4757</v>
       </c>
       <c r="E177" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="F177" t="n">
-        <v>4805.0095</v>
+        <v>6808.5131</v>
       </c>
       <c r="G177" t="n">
-        <v>21.1</v>
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2022.918999999998</v>
+      </c>
+      <c r="I177" t="n">
+        <v>2118.041100000002</v>
+      </c>
+      <c r="J177" t="n">
+        <v>726.1337000000003</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>12572.8074</v>
+        <v>18661.5243</v>
       </c>
       <c r="C178" t="n">
-        <v>4.1</v>
+        <v>-0.9</v>
       </c>
       <c r="D178" t="n">
-        <v>95075.3458</v>
+        <v>101281.2214</v>
       </c>
       <c r="E178" t="n">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="F178" t="n">
-        <v>5518.4609</v>
+        <v>7841.5518</v>
       </c>
       <c r="G178" t="n">
-        <v>21.9</v>
+        <v>4.6</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1986.669400000002</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1993.745699999999</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1033.0387</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>14651.9359</v>
+        <v>20398.5157</v>
       </c>
       <c r="C179" t="n">
-        <v>3.9</v>
+        <v>-1.5</v>
       </c>
       <c r="D179" t="n">
-        <v>97169.43459999999</v>
+        <v>103030.8214</v>
       </c>
       <c r="E179" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="F179" t="n">
-        <v>6082.3794</v>
+        <v>9314.959999999999</v>
       </c>
       <c r="G179" t="n">
-        <v>19.5</v>
+        <v>4.1</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1736.991399999999</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1749.600000000006</v>
+      </c>
+      <c r="J179" t="n">
+        <v>1473.408199999999</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>16674.8549</v>
+        <v>22317</v>
       </c>
       <c r="C180" t="n">
-        <v>-2.3</v>
+        <v>-0.9</v>
       </c>
       <c r="D180" t="n">
-        <v>99287.4757</v>
+        <v>104572</v>
       </c>
       <c r="E180" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="F180" t="n">
-        <v>6808.5131</v>
+        <v>12518</v>
       </c>
       <c r="G180" t="n">
-        <v>9.300000000000001</v>
+        <v>4.1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1918.4843</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1541.178599999999</v>
+      </c>
+      <c r="J180" t="n">
+        <v>3203.040000000001</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>17015.8792</v>
+        <v>2163.2599</v>
       </c>
       <c r="C181" t="n">
-        <v>-8.800000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="D181" t="n">
-        <v>102835.3066</v>
+        <v>87926.8364</v>
       </c>
       <c r="E181" t="n">
-        <v>1.5</v>
+        <v>5.1</v>
       </c>
       <c r="F181" t="n">
-        <v>8405.696</v>
+        <v>1860.6174</v>
       </c>
       <c r="G181" t="n">
-        <v>7.2</v>
+        <v>17.1</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2163.2599</v>
+      </c>
+      <c r="I181" t="n">
+        <v>87926.8364</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1860.6174</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>18641.0189</v>
+        <v>3852.1012</v>
       </c>
       <c r="C182" t="n">
-        <v>-8.6</v>
+        <v>2.9</v>
       </c>
       <c r="D182" t="n">
-        <v>104319.5756</v>
+        <v>89494.4498</v>
       </c>
       <c r="E182" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="F182" t="n">
-        <v>9835.536700000001</v>
+        <v>2881.9565</v>
       </c>
       <c r="G182" t="n">
-        <v>5.6</v>
+        <v>22.6</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1688.8413</v>
+      </c>
+      <c r="I182" t="n">
+        <v>1567.613400000002</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1021.3391</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>20483.9258</v>
+        <v>5672.5833</v>
       </c>
       <c r="C183" t="n">
-        <v>-8.199999999999999</v>
+        <v>-3.6</v>
       </c>
       <c r="D183" t="n">
-        <v>105232.497</v>
+        <v>91288.9911</v>
       </c>
       <c r="E183" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="F183" t="n">
-        <v>12670.2572</v>
+        <v>3625.0647</v>
       </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>20.5</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1820.4821</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1794.541299999997</v>
+      </c>
+      <c r="J183" t="n">
+        <v>743.1082000000001</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>2163.2599</v>
+        <v>7666.6281</v>
       </c>
       <c r="C184" t="n">
-        <v>5.4</v>
+        <v>-6.4</v>
       </c>
       <c r="D184" t="n">
-        <v>87926.8364</v>
+        <v>93276.9525</v>
       </c>
       <c r="E184" t="n">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="F184" t="n">
-        <v>1860.6174</v>
+        <v>4317.6756</v>
       </c>
       <c r="G184" t="n">
-        <v>17.1</v>
+        <v>13.1</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1994.0448</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1987.9614</v>
+      </c>
+      <c r="J184" t="n">
+        <v>692.6108999999997</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3852.1012</v>
+        <v>10058.4306</v>
       </c>
       <c r="C185" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="D185" t="n">
+        <v>95666.2016</v>
+      </c>
+      <c r="E185" t="n">
         <v>2.9</v>
       </c>
-      <c r="D185" t="n">
-        <v>89494.4498</v>
-      </c>
-      <c r="E185" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F185" t="n">
-        <v>2881.9565</v>
+        <v>5170.4314</v>
       </c>
       <c r="G185" t="n">
-        <v>22.6</v>
+        <v>7.6</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2391.8025</v>
+      </c>
+      <c r="I185" t="n">
+        <v>2389.249100000001</v>
+      </c>
+      <c r="J185" t="n">
+        <v>852.7558000000008</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>5672.5833</v>
+        <v>11944.6023</v>
       </c>
       <c r="C186" t="n">
-        <v>-3.6</v>
+        <v>-5</v>
       </c>
       <c r="D186" t="n">
-        <v>91288.9911</v>
+        <v>97646.8973</v>
       </c>
       <c r="E186" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="F186" t="n">
-        <v>3625.0647</v>
+        <v>5916.3677</v>
       </c>
       <c r="G186" t="n">
-        <v>20.5</v>
+        <v>7.2</v>
+      </c>
+      <c r="H186" t="n">
+        <v>1886.171700000001</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1980.695699999997</v>
+      </c>
+      <c r="J186" t="n">
+        <v>745.9362999999994</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>7666.6281</v>
+        <v>13628.7816</v>
       </c>
       <c r="C187" t="n">
-        <v>-6.4</v>
+        <v>-7</v>
       </c>
       <c r="D187" t="n">
-        <v>93276.9525</v>
+        <v>99361.5753</v>
       </c>
       <c r="E187" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="F187" t="n">
-        <v>4317.6756</v>
+        <v>6550.9519</v>
       </c>
       <c r="G187" t="n">
-        <v>13.1</v>
+        <v>7.7</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1684.1793</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1714.678</v>
+      </c>
+      <c r="J187" t="n">
+        <v>634.5842000000002</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>10058.4306</v>
+        <v>15340.0999</v>
       </c>
       <c r="C188" t="n">
-        <v>-4.6</v>
+        <v>-8</v>
       </c>
       <c r="D188" t="n">
-        <v>95666.2016</v>
+        <v>101164.4143</v>
       </c>
       <c r="E188" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="F188" t="n">
-        <v>5170.4314</v>
+        <v>7322.4113</v>
       </c>
       <c r="G188" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1711.318299999999</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1802.839000000007</v>
+      </c>
+      <c r="J188" t="n">
+        <v>771.4593999999997</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>11944.6023</v>
+        <v>17015.8792</v>
       </c>
       <c r="C189" t="n">
-        <v>-5</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="D189" t="n">
-        <v>97646.8973</v>
+        <v>102835.3066</v>
       </c>
       <c r="E189" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="F189" t="n">
-        <v>5916.3677</v>
+        <v>8405.696</v>
       </c>
       <c r="G189" t="n">
         <v>7.2</v>
       </c>
+      <c r="H189" t="n">
+        <v>1675.7793</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1670.892299999992</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1083.2847</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>13628.7816</v>
+        <v>18641.0189</v>
       </c>
       <c r="C190" t="n">
-        <v>-7</v>
+        <v>-8.6</v>
       </c>
       <c r="D190" t="n">
-        <v>99361.5753</v>
+        <v>104319.5756</v>
       </c>
       <c r="E190" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="F190" t="n">
-        <v>6550.9519</v>
+        <v>9835.536700000001</v>
       </c>
       <c r="G190" t="n">
-        <v>7.7</v>
+        <v>5.6</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1625.1397</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1484.269</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1429.840700000001</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>15340.0999</v>
+        <v>20483.9258</v>
       </c>
       <c r="C191" t="n">
-        <v>-8</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D191" t="n">
-        <v>101164.4143</v>
+        <v>105232.497</v>
       </c>
       <c r="E191" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="F191" t="n">
-        <v>7322.4113</v>
+        <v>12670.2572</v>
       </c>
       <c r="G191" t="n">
-        <v>7.5</v>
+        <v>1.2</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1842.906900000002</v>
+      </c>
+      <c r="I191" t="n">
+        <v>912.9214000000065</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2834.720499999999</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>16187.2419</v>
+        <v>1820.7491</v>
       </c>
       <c r="C192" t="n">
-        <v>-4.9</v>
+        <v>-15.8</v>
       </c>
       <c r="D192" t="n">
-        <v>99743.13830000001</v>
+        <v>85272.7013</v>
       </c>
       <c r="E192" t="n">
         <v>-3</v>
       </c>
       <c r="F192" t="n">
-        <v>7131.5973</v>
+        <v>1878.4825</v>
       </c>
       <c r="G192" t="n">
-        <v>-15.2</v>
+        <v>1</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1820.7491</v>
+      </c>
+      <c r="I192" t="n">
+        <v>85272.7013</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1878.4825</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>18036.9984</v>
+        <v>3440.8429</v>
       </c>
       <c r="C193" t="n">
-        <v>-3.2</v>
+        <v>-10.7</v>
       </c>
       <c r="D193" t="n">
-        <v>101539.5224</v>
+        <v>86558.69990000001</v>
       </c>
       <c r="E193" t="n">
-        <v>-2.7</v>
+        <v>-3.3</v>
       </c>
       <c r="F193" t="n">
-        <v>8333.0362</v>
+        <v>2675.5002</v>
       </c>
       <c r="G193" t="n">
-        <v>-15.3</v>
+        <v>-7.2</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1620.0938</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1285.998600000006</v>
+      </c>
+      <c r="J193" t="n">
+        <v>797.0176999999999</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>20065.6854</v>
+        <v>5146.6595</v>
       </c>
       <c r="C194" t="n">
-        <v>-2</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="D194" t="n">
-        <v>102629.2245</v>
+        <v>88252.38340000001</v>
       </c>
       <c r="E194" t="n">
-        <v>-2.5</v>
+        <v>-3.3</v>
       </c>
       <c r="F194" t="n">
-        <v>11258.6806</v>
+        <v>3251.9144</v>
       </c>
       <c r="G194" t="n">
-        <v>-11.1</v>
+        <v>-10.3</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1705.8166</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1693.683499999999</v>
+      </c>
+      <c r="J194" t="n">
+        <v>576.4142000000002</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>1820.7491</v>
+        <v>6994.4736</v>
       </c>
       <c r="C195" t="n">
-        <v>-15.8</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="D195" t="n">
-        <v>85272.7013</v>
+        <v>90146.2936</v>
       </c>
       <c r="E195" t="n">
-        <v>-3</v>
+        <v>-3.4</v>
       </c>
       <c r="F195" t="n">
-        <v>1878.4825</v>
+        <v>3954.2964</v>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>-8.4</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1847.814100000001</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1893.910199999998</v>
+      </c>
+      <c r="J195" t="n">
+        <v>702.3820000000001</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>3440.8429</v>
+        <v>9217.5661</v>
       </c>
       <c r="C196" t="n">
-        <v>-10.7</v>
+        <v>-8.4</v>
       </c>
       <c r="D196" t="n">
-        <v>86558.69990000001</v>
+        <v>92534.0407</v>
       </c>
       <c r="E196" t="n">
         <v>-3.3</v>
       </c>
       <c r="F196" t="n">
-        <v>2675.5002</v>
+        <v>4752.9309</v>
       </c>
       <c r="G196" t="n">
-        <v>-7.2</v>
+        <v>-8.1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>2223.0925</v>
+      </c>
+      <c r="I196" t="n">
+        <v>2387.747099999993</v>
+      </c>
+      <c r="J196" t="n">
+        <v>798.6345000000001</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>5146.6595</v>
+        <v>10971.5638</v>
       </c>
       <c r="C197" t="n">
-        <v>-9.300000000000001</v>
+        <v>-8.1</v>
       </c>
       <c r="D197" t="n">
-        <v>88252.38340000001</v>
+        <v>94255.96400000001</v>
       </c>
       <c r="E197" t="n">
-        <v>-3.3</v>
+        <v>-3.5</v>
       </c>
       <c r="F197" t="n">
-        <v>3251.9144</v>
+        <v>5393.1598</v>
       </c>
       <c r="G197" t="n">
-        <v>-10.3</v>
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1753.9977</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1721.923300000009</v>
+      </c>
+      <c r="J197" t="n">
+        <v>640.2289000000001</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>6994.4736</v>
+        <v>12739.4098</v>
       </c>
       <c r="C198" t="n">
-        <v>-8.800000000000001</v>
+        <v>-6.5</v>
       </c>
       <c r="D198" t="n">
-        <v>90146.2936</v>
+        <v>96119.149</v>
       </c>
       <c r="E198" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="F198" t="n">
-        <v>3954.2964</v>
+        <v>5909.0504</v>
       </c>
       <c r="G198" t="n">
-        <v>-8.4</v>
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1767.846</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1863.184999999998</v>
+      </c>
+      <c r="J198" t="n">
+        <v>515.8905999999997</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>9217.5661</v>
+        <v>14412.2829</v>
       </c>
       <c r="C199" t="n">
-        <v>-8.4</v>
+        <v>-6</v>
       </c>
       <c r="D199" t="n">
-        <v>92534.0407</v>
+        <v>97813.9232</v>
       </c>
       <c r="E199" t="n">
         <v>-3.3</v>
       </c>
       <c r="F199" t="n">
-        <v>4752.9309</v>
+        <v>6393.3776</v>
       </c>
       <c r="G199" t="n">
-        <v>-8.1</v>
+        <v>-12.7</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1672.873100000001</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1694.7742</v>
+      </c>
+      <c r="J199" t="n">
+        <v>484.3271999999997</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>10971.5638</v>
+        <v>16187.2419</v>
       </c>
       <c r="C200" t="n">
-        <v>-8.1</v>
+        <v>-4.9</v>
       </c>
       <c r="D200" t="n">
-        <v>94255.96400000001</v>
+        <v>99743.13830000001</v>
       </c>
       <c r="E200" t="n">
-        <v>-3.5</v>
+        <v>-3</v>
       </c>
       <c r="F200" t="n">
-        <v>5393.1598</v>
+        <v>7131.5973</v>
       </c>
       <c r="G200" t="n">
-        <v>-8.800000000000001</v>
+        <v>-15.2</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1774.959000000001</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1929.215100000001</v>
+      </c>
+      <c r="J200" t="n">
+        <v>738.2197000000006</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>12739.4098</v>
+        <v>18036.9984</v>
       </c>
       <c r="C201" t="n">
-        <v>-6.5</v>
+        <v>-3.2</v>
       </c>
       <c r="D201" t="n">
-        <v>96119.149</v>
+        <v>101539.5224</v>
       </c>
       <c r="E201" t="n">
-        <v>-3.3</v>
+        <v>-2.7</v>
       </c>
       <c r="F201" t="n">
-        <v>5909.0504</v>
+        <v>8333.0362</v>
       </c>
       <c r="G201" t="n">
-        <v>-9.800000000000001</v>
+        <v>-15.3</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1849.7565</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1796.384099999996</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1201.4389</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>14412.2829</v>
+        <v>20065.6854</v>
       </c>
       <c r="C202" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="D202" t="n">
-        <v>97813.9232</v>
+        <v>102629.2245</v>
       </c>
       <c r="E202" t="n">
-        <v>-3.3</v>
+        <v>-2.5</v>
       </c>
       <c r="F202" t="n">
-        <v>6393.3776</v>
+        <v>11258.6806</v>
       </c>
       <c r="G202" t="n">
-        <v>-12.7</v>
+        <v>-11.1</v>
+      </c>
+      <c r="H202" t="n">
+        <v>2028.686999999998</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1089.702099999995</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2925.644399999999</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>15504.9981</v>
+        <v>1774.143</v>
       </c>
       <c r="C203" t="n">
-        <v>-4.2</v>
+        <v>-2.6</v>
       </c>
       <c r="D203" t="n">
-        <v>97836.9341</v>
+        <v>82936.7982</v>
       </c>
       <c r="E203" t="n">
-        <v>-1.9</v>
+        <v>-2.7</v>
       </c>
       <c r="F203" t="n">
-        <v>6336.1696</v>
+        <v>1476.7341</v>
       </c>
       <c r="G203" t="n">
-        <v>-11.2</v>
+        <v>-21.4</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1774.143</v>
+      </c>
+      <c r="I203" t="n">
+        <v>82936.7982</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1476.7341</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>17134.3536</v>
+        <v>3360.6347</v>
       </c>
       <c r="C204" t="n">
-        <v>-5</v>
+        <v>-2.3</v>
       </c>
       <c r="D204" t="n">
-        <v>99428.6296</v>
+        <v>84969.0705</v>
       </c>
       <c r="E204" t="n">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="F204" t="n">
-        <v>7481.2228</v>
+        <v>2270.6994</v>
       </c>
       <c r="G204" t="n">
-        <v>-10.2</v>
+        <v>-15.1</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1586.4917</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2032.272299999997</v>
+      </c>
+      <c r="J204" t="n">
+        <v>793.9653000000001</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>18936.2791</v>
+        <v>4868.6793</v>
       </c>
       <c r="C205" t="n">
-        <v>-5.6</v>
+        <v>-5.4</v>
       </c>
       <c r="D205" t="n">
-        <v>100389.4934</v>
+        <v>86638.16190000001</v>
       </c>
       <c r="E205" t="n">
-        <v>-2.2</v>
+        <v>-1.8</v>
       </c>
       <c r="F205" t="n">
-        <v>10814.1772</v>
+        <v>2786.5521</v>
       </c>
       <c r="G205" t="n">
-        <v>-3.9</v>
+        <v>-14.3</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1508.0446</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1669.091400000005</v>
+      </c>
+      <c r="J205" t="n">
+        <v>515.8526999999999</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>1774.143</v>
+        <v>6666.6003</v>
       </c>
       <c r="C206" t="n">
-        <v>-2.6</v>
+        <v>-4.7</v>
       </c>
       <c r="D206" t="n">
-        <v>82936.7982</v>
+        <v>88579.3949</v>
       </c>
       <c r="E206" t="n">
-        <v>-2.7</v>
+        <v>-1.7</v>
       </c>
       <c r="F206" t="n">
-        <v>1476.7341</v>
+        <v>3329.8394</v>
       </c>
       <c r="G206" t="n">
-        <v>-21.4</v>
+        <v>-15.8</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1797.921</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1941.232999999993</v>
+      </c>
+      <c r="J206" t="n">
+        <v>543.2873</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>3360.6347</v>
+        <v>8876.191000000001</v>
       </c>
       <c r="C207" t="n">
-        <v>-2.3</v>
+        <v>-3.7</v>
       </c>
       <c r="D207" t="n">
-        <v>84969.0705</v>
+        <v>90931.1274</v>
       </c>
       <c r="E207" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="F207" t="n">
-        <v>2270.6994</v>
+        <v>3927.2251</v>
       </c>
       <c r="G207" t="n">
-        <v>-15.1</v>
+        <v>-17.4</v>
+      </c>
+      <c r="H207" t="n">
+        <v>2209.590700000001</v>
+      </c>
+      <c r="I207" t="n">
+        <v>2351.732499999998</v>
+      </c>
+      <c r="J207" t="n">
+        <v>597.3857000000003</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>4868.6793</v>
+        <v>10585.3277</v>
       </c>
       <c r="C208" t="n">
-        <v>-5.4</v>
+        <v>-3.5</v>
       </c>
       <c r="D208" t="n">
-        <v>86638.16190000001</v>
+        <v>92863.7981</v>
       </c>
       <c r="E208" t="n">
-        <v>-1.8</v>
+        <v>-1.5</v>
       </c>
       <c r="F208" t="n">
-        <v>2786.5521</v>
+        <v>4457.8501</v>
       </c>
       <c r="G208" t="n">
-        <v>-14.3</v>
+        <v>-17.3</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1709.136699999999</v>
+      </c>
+      <c r="I208" t="n">
+        <v>1932.670700000002</v>
+      </c>
+      <c r="J208" t="n">
+        <v>530.6249999999995</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>6666.6003</v>
+        <v>12172.406</v>
       </c>
       <c r="C209" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="D209" t="n">
-        <v>88579.3949</v>
+        <v>94496.3278</v>
       </c>
       <c r="E209" t="n">
         <v>-1.7</v>
       </c>
       <c r="F209" t="n">
-        <v>3329.8394</v>
+        <v>4987.7314</v>
       </c>
       <c r="G209" t="n">
-        <v>-15.8</v>
+        <v>-15.6</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1587.078300000001</v>
+      </c>
+      <c r="I209" t="n">
+        <v>1632.529699999999</v>
+      </c>
+      <c r="J209" t="n">
+        <v>529.8813</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>8876.191000000001</v>
+        <v>13941.5203</v>
       </c>
       <c r="C210" t="n">
-        <v>-3.7</v>
+        <v>-3.3</v>
       </c>
       <c r="D210" t="n">
-        <v>90931.1274</v>
+        <v>96144.3824</v>
       </c>
       <c r="E210" t="n">
         <v>-1.7</v>
       </c>
       <c r="F210" t="n">
-        <v>3927.2251</v>
+        <v>5532.5845</v>
       </c>
       <c r="G210" t="n">
-        <v>-17.4</v>
+        <v>-13.5</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1769.114299999999</v>
+      </c>
+      <c r="I210" t="n">
+        <v>1648.054600000003</v>
+      </c>
+      <c r="J210" t="n">
+        <v>544.8531000000003</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>10585.3277</v>
+        <v>15504.9981</v>
       </c>
       <c r="C211" t="n">
-        <v>-3.5</v>
+        <v>-4.2</v>
       </c>
       <c r="D211" t="n">
-        <v>92863.7981</v>
+        <v>97836.9341</v>
       </c>
       <c r="E211" t="n">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
       <c r="F211" t="n">
-        <v>4457.8501</v>
+        <v>6336.1696</v>
       </c>
       <c r="G211" t="n">
-        <v>-17.3</v>
+        <v>-11.2</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1563.477800000001</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1692.551699999996</v>
+      </c>
+      <c r="J211" t="n">
+        <v>803.5851000000002</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>12172.406</v>
+        <v>17134.3536</v>
       </c>
       <c r="C212" t="n">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="D212" t="n">
-        <v>94496.3278</v>
+        <v>99428.6296</v>
       </c>
       <c r="E212" t="n">
-        <v>-1.7</v>
+        <v>-2.1</v>
       </c>
       <c r="F212" t="n">
-        <v>4987.7314</v>
+        <v>7481.2228</v>
       </c>
       <c r="G212" t="n">
-        <v>-15.6</v>
+        <v>-10.2</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1629.355499999998</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1591.695500000002</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1145.053199999999</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>13941.5203</v>
+        <v>18936.2791</v>
       </c>
       <c r="C213" t="n">
-        <v>-3.3</v>
+        <v>-5.6</v>
       </c>
       <c r="D213" t="n">
-        <v>96144.3824</v>
+        <v>100389.4934</v>
       </c>
       <c r="E213" t="n">
-        <v>-1.7</v>
+        <v>-2.2</v>
       </c>
       <c r="F213" t="n">
-        <v>5532.5845</v>
+        <v>10814.1772</v>
       </c>
       <c r="G213" t="n">
-        <v>-13.5</v>
+        <v>-3.9</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1801.925500000001</v>
+      </c>
+      <c r="I213" t="n">
+        <v>960.8638000000064</v>
+      </c>
+      <c r="J213" t="n">
+        <v>3332.954400000001</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>14566.6864</v>
+        <v>875.4031</v>
       </c>
       <c r="C214" t="n">
-        <v>-6.1</v>
+        <v>-50.7</v>
       </c>
       <c r="D214" t="n">
-        <v>89626.13219999999</v>
+        <v>74457.32399999999</v>
       </c>
       <c r="E214" t="n">
-        <v>-8.4</v>
+        <v>-10.2</v>
       </c>
       <c r="F214" t="n">
-        <v>4900.9047</v>
+        <v>1036.6859</v>
       </c>
       <c r="G214" t="n">
-        <v>-22.7</v>
+        <v>-29.8</v>
+      </c>
+      <c r="H214" t="n">
+        <v>875.4031</v>
+      </c>
+      <c r="I214" t="n">
+        <v>74457.32399999999</v>
+      </c>
+      <c r="J214" t="n">
+        <v>1036.6859</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>16218.7024</v>
+        <v>2361.1895</v>
       </c>
       <c r="C215" t="n">
-        <v>-5.3</v>
+        <v>-29.7</v>
       </c>
       <c r="D215" t="n">
-        <v>91405.7653</v>
+        <v>76572.98239999999</v>
       </c>
       <c r="E215" t="n">
-        <v>-8.1</v>
+        <v>-9.9</v>
       </c>
       <c r="F215" t="n">
-        <v>5773.5666</v>
+        <v>1802.0617</v>
       </c>
       <c r="G215" t="n">
-        <v>-22.8</v>
+        <v>-20.6</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1485.7864</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2115.6584</v>
+      </c>
+      <c r="J215" t="n">
+        <v>765.3758</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>18012.3174</v>
+        <v>3873.3761</v>
       </c>
       <c r="C216" t="n">
-        <v>-4.9</v>
+        <v>-20.4</v>
       </c>
       <c r="D216" t="n">
-        <v>93197.68210000001</v>
+        <v>78232.3349</v>
       </c>
       <c r="E216" t="n">
-        <v>-7.2</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="F216" t="n">
-        <v>8620.623299999999</v>
+        <v>2151.1047</v>
       </c>
       <c r="G216" t="n">
-        <v>-20.3</v>
+        <v>-22.8</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1512.1866</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1659.352500000008</v>
+      </c>
+      <c r="J216" t="n">
+        <v>349.0429999999999</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>875.4031</v>
+        <v>5590.8433</v>
       </c>
       <c r="C217" t="n">
-        <v>-50.7</v>
+        <v>-16.1</v>
       </c>
       <c r="D217" t="n">
-        <v>74457.32399999999</v>
+        <v>79937.5983</v>
       </c>
       <c r="E217" t="n">
-        <v>-10.2</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="F217" t="n">
-        <v>1036.6859</v>
+        <v>2599.3251</v>
       </c>
       <c r="G217" t="n">
-        <v>-29.8</v>
+        <v>-21.9</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1717.467200000001</v>
+      </c>
+      <c r="I217" t="n">
+        <v>1705.263399999996</v>
+      </c>
+      <c r="J217" t="n">
+        <v>448.2204000000002</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>2361.1895</v>
+        <v>7990.8992</v>
       </c>
       <c r="C218" t="n">
-        <v>-29.7</v>
+        <v>-10</v>
       </c>
       <c r="D218" t="n">
-        <v>76572.98239999999</v>
+        <v>82484.0258</v>
       </c>
       <c r="E218" t="n">
-        <v>-9.9</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="F218" t="n">
-        <v>1802.0617</v>
+        <v>3082.2917</v>
       </c>
       <c r="G218" t="n">
-        <v>-20.6</v>
+        <v>-21.5</v>
+      </c>
+      <c r="H218" t="n">
+        <v>2400.055899999999</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2546.427500000005</v>
+      </c>
+      <c r="J218" t="n">
+        <v>482.9666000000002</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>3873.3761</v>
+        <v>9630.769899999999</v>
       </c>
       <c r="C219" t="n">
-        <v>-20.4</v>
+        <v>-9</v>
       </c>
       <c r="D219" t="n">
-        <v>78232.3349</v>
+        <v>84606.0751</v>
       </c>
       <c r="E219" t="n">
-        <v>-9.699999999999999</v>
+        <v>-8.9</v>
       </c>
       <c r="F219" t="n">
-        <v>2151.1047</v>
+        <v>3484.8965</v>
       </c>
       <c r="G219" t="n">
-        <v>-22.8</v>
+        <v>-21.8</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1639.870699999999</v>
+      </c>
+      <c r="I219" t="n">
+        <v>2122.049299999999</v>
+      </c>
+      <c r="J219" t="n">
+        <v>402.6047999999996</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>5590.8433</v>
+        <v>11391.9231</v>
       </c>
       <c r="C220" t="n">
-        <v>-16.1</v>
+        <v>-6.4</v>
       </c>
       <c r="D220" t="n">
-        <v>79937.5983</v>
+        <v>86534.2154</v>
       </c>
       <c r="E220" t="n">
-        <v>-9.800000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="F220" t="n">
-        <v>2599.3251</v>
+        <v>3847.1423</v>
       </c>
       <c r="G220" t="n">
-        <v>-21.9</v>
+        <v>-22.9</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1761.153200000001</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1928.140299999999</v>
+      </c>
+      <c r="J220" t="n">
+        <v>362.2458000000001</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>7990.8992</v>
+        <v>13068.4978</v>
       </c>
       <c r="C221" t="n">
-        <v>-10</v>
+        <v>-6.3</v>
       </c>
       <c r="D221" t="n">
-        <v>82484.0258</v>
+        <v>88081.5717</v>
       </c>
       <c r="E221" t="n">
-        <v>-9.300000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="F221" t="n">
-        <v>3082.2917</v>
+        <v>4198.1465</v>
       </c>
       <c r="G221" t="n">
-        <v>-21.5</v>
+        <v>-24.1</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1676.574699999999</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1547.356299999999</v>
+      </c>
+      <c r="J221" t="n">
+        <v>351.0041999999999</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>9630.769899999999</v>
+        <v>14566.6864</v>
       </c>
       <c r="C222" t="n">
-        <v>-9</v>
+        <v>-6.1</v>
       </c>
       <c r="D222" t="n">
-        <v>84606.0751</v>
+        <v>89626.13219999999</v>
       </c>
       <c r="E222" t="n">
-        <v>-8.9</v>
+        <v>-8.4</v>
       </c>
       <c r="F222" t="n">
-        <v>3484.8965</v>
+        <v>4900.9047</v>
       </c>
       <c r="G222" t="n">
-        <v>-21.8</v>
+        <v>-22.7</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1498.188600000001</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1544.560499999992</v>
+      </c>
+      <c r="J222" t="n">
+        <v>702.7582000000002</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>11391.9231</v>
+        <v>16218.7024</v>
       </c>
       <c r="C223" t="n">
-        <v>-6.4</v>
+        <v>-5.3</v>
       </c>
       <c r="D223" t="n">
-        <v>86534.2154</v>
+        <v>91405.7653</v>
       </c>
       <c r="E223" t="n">
-        <v>-8.4</v>
+        <v>-8.1</v>
       </c>
       <c r="F223" t="n">
-        <v>3847.1423</v>
+        <v>5773.5666</v>
       </c>
       <c r="G223" t="n">
-        <v>-22.9</v>
+        <v>-22.8</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1652.016</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1779.633100000006</v>
+      </c>
+      <c r="J223" t="n">
+        <v>872.6619000000001</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>13068.4978</v>
+        <v>18012.3174</v>
       </c>
       <c r="C224" t="n">
-        <v>-6.3</v>
+        <v>-4.9</v>
       </c>
       <c r="D224" t="n">
-        <v>88081.5717</v>
+        <v>93197.68210000001</v>
       </c>
       <c r="E224" t="n">
-        <v>-8.4</v>
+        <v>-7.2</v>
       </c>
       <c r="F224" t="n">
-        <v>4198.1465</v>
+        <v>8620.623299999999</v>
       </c>
       <c r="G224" t="n">
-        <v>-24.1</v>
+        <v>-20.3</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1793.615</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1791.916800000006</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2847.056699999999</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>11877.906</v>
+        <v>1265.889</v>
       </c>
       <c r="C225" t="n">
-        <v>-18.5</v>
+        <v>44.6</v>
       </c>
       <c r="D225" t="n">
-        <v>88536.40889999999</v>
+        <v>76345.9347</v>
       </c>
       <c r="E225" t="n">
-        <v>-1.2</v>
+        <v>2.5</v>
       </c>
       <c r="F225" t="n">
-        <v>5133.5776</v>
+        <v>1214.0359</v>
       </c>
       <c r="G225" t="n">
-        <v>4.7</v>
+        <v>17.1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1265.889</v>
+      </c>
+      <c r="I225" t="n">
+        <v>76345.9347</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1214.0359</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>12936.246</v>
+        <v>2530.3241</v>
       </c>
       <c r="C226" t="n">
-        <v>-20.2</v>
+        <v>7.2</v>
       </c>
       <c r="D226" t="n">
-        <v>89647.8101</v>
+        <v>77886.5745</v>
       </c>
       <c r="E226" t="n">
-        <v>-1.9</v>
+        <v>1.7</v>
       </c>
       <c r="F226" t="n">
-        <v>6053.5489</v>
+        <v>1764.459</v>
       </c>
       <c r="G226" t="n">
-        <v>4.8</v>
+        <v>-2.1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1264.4351</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1540.639800000004</v>
+      </c>
+      <c r="J226" t="n">
+        <v>550.4231</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>14105.5253</v>
+        <v>3782.4258</v>
       </c>
       <c r="C227" t="n">
-        <v>-21.7</v>
+        <v>-2.3</v>
       </c>
       <c r="D227" t="n">
-        <v>90676.7441</v>
+        <v>79374.8412</v>
       </c>
       <c r="E227" t="n">
-        <v>-2.7</v>
+        <v>1.5</v>
       </c>
       <c r="F227" t="n">
-        <v>8717.9149</v>
+        <v>2072.5583</v>
       </c>
       <c r="G227" t="n">
-        <v>1.1</v>
+        <v>-3.7</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1252.1017</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1488.266699999993</v>
+      </c>
+      <c r="J227" t="n">
+        <v>308.0993000000001</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1265.889</v>
+        <v>5159.6618</v>
       </c>
       <c r="C228" t="n">
-        <v>44.6</v>
+        <v>-7.7</v>
       </c>
       <c r="D228" t="n">
-        <v>76345.9347</v>
+        <v>80962.27499999999</v>
       </c>
       <c r="E228" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="F228" t="n">
-        <v>1214.0359</v>
+        <v>2558.7708</v>
       </c>
       <c r="G228" t="n">
-        <v>17.1</v>
+        <v>-1.6</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1377.236</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1587.433799999999</v>
+      </c>
+      <c r="J228" t="n">
+        <v>486.2124999999996</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2530.3241</v>
+        <v>6976.9337</v>
       </c>
       <c r="C229" t="n">
-        <v>7.2</v>
+        <v>-12.7</v>
       </c>
       <c r="D229" t="n">
-        <v>77886.5745</v>
+        <v>83296.0361</v>
       </c>
       <c r="E229" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="F229" t="n">
-        <v>1764.459</v>
+        <v>3401.829</v>
       </c>
       <c r="G229" t="n">
-        <v>-2.1</v>
+        <v>10.4</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1817.2719</v>
+      </c>
+      <c r="I229" t="n">
+        <v>2333.761100000003</v>
+      </c>
+      <c r="J229" t="n">
+        <v>843.0582000000004</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>3782.4258</v>
+        <v>8316.5167</v>
       </c>
       <c r="C230" t="n">
-        <v>-2.3</v>
+        <v>-13.6</v>
       </c>
       <c r="D230" t="n">
-        <v>79374.8412</v>
+        <v>84676.8186</v>
       </c>
       <c r="E230" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="F230" t="n">
-        <v>2072.5583</v>
+        <v>3831.586</v>
       </c>
       <c r="G230" t="n">
-        <v>-3.7</v>
+        <v>9.9</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1339.583000000001</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1380.782500000001</v>
+      </c>
+      <c r="J230" t="n">
+        <v>429.7569999999996</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>5159.6618</v>
+        <v>9486.322899999999</v>
       </c>
       <c r="C231" t="n">
-        <v>-7.7</v>
+        <v>-16.7</v>
       </c>
       <c r="D231" t="n">
-        <v>80962.27499999999</v>
+        <v>86002.0686</v>
       </c>
       <c r="E231" t="n">
-        <v>1.3</v>
+        <v>-0.6</v>
       </c>
       <c r="F231" t="n">
-        <v>2558.7708</v>
+        <v>4229.8103</v>
       </c>
       <c r="G231" t="n">
-        <v>-1.6</v>
+        <v>9.9</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1169.806199999999</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1325.25</v>
+      </c>
+      <c r="J231" t="n">
+        <v>398.2243000000003</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>6976.9337</v>
+        <v>10778.3092</v>
       </c>
       <c r="C232" t="n">
-        <v>-12.7</v>
+        <v>-17.5</v>
       </c>
       <c r="D232" t="n">
-        <v>83296.0361</v>
+        <v>87465.42019999999</v>
       </c>
       <c r="E232" t="n">
-        <v>1</v>
+        <v>-0.7</v>
       </c>
       <c r="F232" t="n">
-        <v>3401.829</v>
+        <v>4631.6276</v>
       </c>
       <c r="G232" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1291.9863</v>
+      </c>
+      <c r="I232" t="n">
+        <v>1463.351599999995</v>
+      </c>
+      <c r="J232" t="n">
+        <v>401.8172999999997</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>8316.5167</v>
+        <v>11877.906</v>
       </c>
       <c r="C233" t="n">
-        <v>-13.6</v>
+        <v>-18.5</v>
       </c>
       <c r="D233" t="n">
-        <v>84676.8186</v>
+        <v>88536.40889999999</v>
       </c>
       <c r="E233" t="n">
-        <v>0.1</v>
+        <v>-1.2</v>
       </c>
       <c r="F233" t="n">
-        <v>3831.586</v>
+        <v>5133.5776</v>
       </c>
       <c r="G233" t="n">
-        <v>9.9</v>
+        <v>4.7</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1099.596800000001</v>
+      </c>
+      <c r="I233" t="n">
+        <v>1070.988700000002</v>
+      </c>
+      <c r="J233" t="n">
+        <v>501.9499999999998</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>9486.322899999999</v>
+        <v>12936.246</v>
       </c>
       <c r="C234" t="n">
-        <v>-16.7</v>
+        <v>-20.2</v>
       </c>
       <c r="D234" t="n">
-        <v>86002.0686</v>
+        <v>89647.8101</v>
       </c>
       <c r="E234" t="n">
-        <v>-0.6</v>
+        <v>-1.9</v>
       </c>
       <c r="F234" t="n">
-        <v>4229.8103</v>
+        <v>6053.5489</v>
       </c>
       <c r="G234" t="n">
-        <v>9.9</v>
+        <v>4.8</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1058.339999999998</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1111.401200000008</v>
+      </c>
+      <c r="J234" t="n">
+        <v>919.9713000000002</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>10778.3092</v>
+        <v>14105.5253</v>
       </c>
       <c r="C235" t="n">
-        <v>-17.5</v>
+        <v>-21.7</v>
       </c>
       <c r="D235" t="n">
-        <v>87465.42019999999</v>
+        <v>90676.7441</v>
       </c>
       <c r="E235" t="n">
-        <v>-0.7</v>
+        <v>-2.7</v>
       </c>
       <c r="F235" t="n">
-        <v>4631.6276</v>
+        <v>8717.9149</v>
       </c>
       <c r="G235" t="n">
-        <v>10.3</v>
+        <v>1.1</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1169.2793</v>
+      </c>
+      <c r="I235" t="n">
+        <v>1028.933999999994</v>
+      </c>
+      <c r="J235" t="n">
+        <v>2664.366</v>
       </c>
     </row>
   </sheetData>
